--- a/data/Lab2_data/original_data/hppc_18650_+25.xlsx
+++ b/data/Lab2_data/original_data/hppc_18650_+25.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Desktop\Lab_2\Modle\Project_Lab2\Lab_2\data\Lab2_data\original_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB64B4CC-4935-440D-A5F6-59D04399E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59981ACE-E5E8-473B-BF4B-6FA5899AFDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-460" yWindow="430" windowWidth="22540" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initialdata" sheetId="1" r:id="rId1"/>
-    <sheet name="SOC_OCV" sheetId="2" r:id="rId2"/>
+    <sheet name="hppc_1" sheetId="3" r:id="rId2"/>
+    <sheet name="SOC_OCV" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="6">
   <si>
     <t>t</t>
   </si>
@@ -41,6 +42,9 @@
   </si>
   <si>
     <t>Discharging</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -141,7 +145,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8244543164101982E-2"/>
+          <c:y val="0.15935553168635877"/>
+          <c:w val="0.87817374111892865"/>
+          <c:h val="0.74097414514914961"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -10481,8 +10495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1324" sqref="A1324:C1359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27417,11 +27431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629C4ADA-8BEF-491F-9CD7-3B77D118322F}">
-  <dimension ref="B2:AI65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EB3427-B13F-4125-9049-F6B6F353252E}">
+  <dimension ref="B2:AI44"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AO22" sqref="AO22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27436,39 +27450,36 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3">
         <v>0.9</v>
       </c>
-      <c r="H3">
+      <c r="F3">
         <v>0.8</v>
       </c>
-      <c r="K3">
+      <c r="I3">
         <v>0.7</v>
       </c>
-      <c r="N3">
+      <c r="L3">
         <v>0.6</v>
       </c>
-      <c r="Q3">
+      <c r="O3">
         <v>0.5</v>
       </c>
-      <c r="T3">
+      <c r="R3">
         <v>0.4</v>
       </c>
-      <c r="W3">
+      <c r="U3">
         <v>0.3</v>
       </c>
-      <c r="Z3">
+      <c r="X3">
         <v>0.2</v>
       </c>
-      <c r="AC3">
+      <c r="AA3">
         <v>0.1</v>
       </c>
-      <c r="AF3">
+      <c r="AD3">
         <v>0</v>
       </c>
-      <c r="AI3">
+      <c r="AG3">
         <v>0</v>
       </c>
     </row>
@@ -27479,60 +27490,90 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
       </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
       </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>
       </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
       <c r="N5" t="s">
         <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>1</v>
       </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s">
         <v>0</v>
       </c>
       <c r="R5" t="s">
         <v>1</v>
       </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
       <c r="U5" t="s">
         <v>1</v>
       </c>
+      <c r="V5" t="s">
+        <v>5</v>
+      </c>
       <c r="W5" t="s">
         <v>0</v>
       </c>
       <c r="X5" t="s">
         <v>1</v>
       </c>
+      <c r="Y5" t="s">
+        <v>5</v>
+      </c>
       <c r="Z5" t="s">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
         <v>1</v>
       </c>
+      <c r="AB5" t="s">
+        <v>5</v>
+      </c>
       <c r="AC5" t="s">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
         <v>1</v>
       </c>
+      <c r="AE5" t="s">
+        <v>5</v>
+      </c>
       <c r="AF5" t="s">
         <v>0</v>
       </c>
@@ -27545,3964 +27586,7336 @@
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.35">
       <c r="B6">
+        <v>6337</v>
+      </c>
+      <c r="C6">
+        <v>4.18729</v>
+      </c>
+      <c r="D6">
+        <v>-1.0918600000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>8497</v>
+      </c>
+      <c r="F6">
+        <v>4.0908100000000003</v>
+      </c>
+      <c r="G6">
+        <v>-1.0667000000000001E-3</v>
+      </c>
+      <c r="H6">
+        <v>10658</v>
+      </c>
+      <c r="I6">
+        <v>4.0088699999999999</v>
+      </c>
+      <c r="J6">
+        <v>-1.0453400000000001E-3</v>
+      </c>
+      <c r="K6">
+        <v>12818</v>
+      </c>
+      <c r="L6">
+        <v>3.8874300000000002</v>
+      </c>
+      <c r="M6">
+        <v>-1.0136699999999999E-3</v>
+      </c>
+      <c r="N6">
+        <v>14979</v>
+      </c>
+      <c r="O6">
+        <v>3.8059099999999999</v>
+      </c>
+      <c r="P6">
+        <v>-9.9241499999999996E-4</v>
+      </c>
+      <c r="Q6">
+        <v>17139</v>
+      </c>
+      <c r="R6">
+        <v>3.6887300000000001</v>
+      </c>
+      <c r="S6">
+        <v>-9.6186000000000004E-4</v>
+      </c>
+      <c r="T6">
+        <v>19299</v>
+      </c>
+      <c r="U6">
+        <v>3.5527299999999999</v>
+      </c>
+      <c r="V6">
+        <v>-9.2639700000000003E-4</v>
+      </c>
+      <c r="W6">
+        <v>21460</v>
+      </c>
+      <c r="X6">
+        <v>3.4247399999999999</v>
+      </c>
+      <c r="Y6">
+        <v>-8.9302200000000004E-4</v>
+      </c>
+      <c r="Z6">
+        <v>23620</v>
+      </c>
+      <c r="AA6">
+        <v>3.2772999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>-8.5457700000000003E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>6347</v>
+      </c>
+      <c r="C7">
+        <v>3.72844</v>
+      </c>
+      <c r="D7">
+        <v>-3.0029699999999999</v>
+      </c>
+      <c r="E7">
+        <v>8507</v>
+      </c>
+      <c r="F7">
+        <v>3.6349800000000001</v>
+      </c>
+      <c r="G7">
+        <v>-3.0028299999999999</v>
+      </c>
+      <c r="H7">
+        <v>10668</v>
+      </c>
+      <c r="I7">
+        <v>3.5493800000000002</v>
+      </c>
+      <c r="J7">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="K7">
+        <v>12828</v>
+      </c>
+      <c r="L7">
+        <v>3.42909</v>
+      </c>
+      <c r="M7">
+        <v>-3.0028199999999998</v>
+      </c>
+      <c r="N7">
+        <v>14989</v>
+      </c>
+      <c r="O7">
+        <v>3.3458100000000002</v>
+      </c>
+      <c r="P7">
+        <v>-3.0027499999999998</v>
+      </c>
+      <c r="Q7">
+        <v>17149</v>
+      </c>
+      <c r="R7">
+        <v>3.2265299999999999</v>
+      </c>
+      <c r="S7">
+        <v>-3.0026600000000001</v>
+      </c>
+      <c r="T7">
+        <v>19309</v>
+      </c>
+      <c r="U7">
+        <v>3.09137</v>
+      </c>
+      <c r="V7">
+        <v>-3.0028000000000001</v>
+      </c>
+      <c r="W7">
+        <v>21470</v>
+      </c>
+      <c r="X7">
+        <v>2.9579900000000001</v>
+      </c>
+      <c r="Y7">
+        <v>-3.0024099999999998</v>
+      </c>
+      <c r="Z7">
+        <v>23630</v>
+      </c>
+      <c r="AA7">
+        <v>2.79386</v>
+      </c>
+      <c r="AB7">
+        <v>-3.0025599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>6357</v>
+      </c>
+      <c r="C8">
+        <v>3.7004899999999998</v>
+      </c>
+      <c r="D8">
+        <v>-3.0028000000000001</v>
+      </c>
+      <c r="E8">
+        <v>8517</v>
+      </c>
+      <c r="F8">
+        <v>3.61022</v>
+      </c>
+      <c r="G8">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="H8">
+        <v>10678</v>
+      </c>
+      <c r="I8">
+        <v>3.5204</v>
+      </c>
+      <c r="J8">
+        <v>-3.00285</v>
+      </c>
+      <c r="K8">
+        <v>12838</v>
+      </c>
+      <c r="L8">
+        <v>3.4048099999999999</v>
+      </c>
+      <c r="M8">
+        <v>-3.0026700000000002</v>
+      </c>
+      <c r="N8">
+        <v>14999</v>
+      </c>
+      <c r="O8">
+        <v>3.3213599999999999</v>
+      </c>
+      <c r="P8">
+        <v>-3.0030299999999999</v>
+      </c>
+      <c r="Q8">
+        <v>17159</v>
+      </c>
+      <c r="R8">
+        <v>3.20018</v>
+      </c>
+      <c r="S8">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="T8">
+        <v>19319</v>
+      </c>
+      <c r="U8">
+        <v>3.0644800000000001</v>
+      </c>
+      <c r="V8">
+        <v>-3.0026799999999998</v>
+      </c>
+      <c r="W8">
+        <v>21480</v>
+      </c>
+      <c r="X8">
+        <v>2.9224199999999998</v>
+      </c>
+      <c r="Y8">
+        <v>-3.0025900000000001</v>
+      </c>
+      <c r="Z8">
+        <v>23640</v>
+      </c>
+      <c r="AA8">
+        <v>2.74925</v>
+      </c>
+      <c r="AB8">
+        <v>-3.0025499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>6367</v>
+      </c>
+      <c r="C9">
+        <v>3.67964</v>
+      </c>
+      <c r="D9">
+        <v>-3.00265</v>
+      </c>
+      <c r="E9">
+        <v>8527</v>
+      </c>
+      <c r="F9">
+        <v>3.59396</v>
+      </c>
+      <c r="G9">
+        <v>-3.00264</v>
+      </c>
+      <c r="H9">
+        <v>10688</v>
+      </c>
+      <c r="I9">
+        <v>3.4996999999999998</v>
+      </c>
+      <c r="J9">
+        <v>-3.0030999999999999</v>
+      </c>
+      <c r="K9">
+        <v>12848</v>
+      </c>
+      <c r="L9">
+        <v>3.3889399999999998</v>
+      </c>
+      <c r="M9">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="N9">
+        <v>15009</v>
+      </c>
+      <c r="O9">
+        <v>3.3039100000000001</v>
+      </c>
+      <c r="P9">
+        <v>-3.0027900000000001</v>
+      </c>
+      <c r="Q9">
+        <v>17169</v>
+      </c>
+      <c r="R9">
+        <v>3.1811400000000001</v>
+      </c>
+      <c r="S9">
+        <v>-3.0026299999999999</v>
+      </c>
+      <c r="T9">
+        <v>19329</v>
+      </c>
+      <c r="U9">
+        <v>3.0434199999999998</v>
+      </c>
+      <c r="V9">
+        <v>-3.0027499999999998</v>
+      </c>
+      <c r="W9">
+        <v>21490</v>
+      </c>
+      <c r="X9">
+        <v>2.8919600000000001</v>
+      </c>
+      <c r="Y9">
+        <v>-3.0028899999999998</v>
+      </c>
+      <c r="Z9">
+        <v>23650</v>
+      </c>
+      <c r="AA9">
+        <v>2.7100499999999998</v>
+      </c>
+      <c r="AB9">
+        <v>-3.00271</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>6377</v>
+      </c>
+      <c r="C10">
+        <v>3.6656399999999998</v>
+      </c>
+      <c r="D10">
+        <v>-3.0025599999999999</v>
+      </c>
+      <c r="E10">
+        <v>8537</v>
+      </c>
+      <c r="F10">
+        <v>3.5826500000000001</v>
+      </c>
+      <c r="G10">
+        <v>-3.0030399999999999</v>
+      </c>
+      <c r="H10">
+        <v>10698</v>
+      </c>
+      <c r="I10">
+        <v>3.4853399999999999</v>
+      </c>
+      <c r="J10">
+        <v>-3.00298</v>
+      </c>
+      <c r="K10">
+        <v>12858</v>
+      </c>
+      <c r="L10">
+        <v>3.3784700000000001</v>
+      </c>
+      <c r="M10">
+        <v>-3.0026199999999998</v>
+      </c>
+      <c r="N10">
+        <v>15019</v>
+      </c>
+      <c r="O10">
+        <v>3.29148</v>
+      </c>
+      <c r="P10">
+        <v>-3.0028000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>17179</v>
+      </c>
+      <c r="R10">
+        <v>3.1671800000000001</v>
+      </c>
+      <c r="S10">
+        <v>-3.0028999999999999</v>
+      </c>
+      <c r="T10">
+        <v>19339</v>
+      </c>
+      <c r="U10">
+        <v>3.0281199999999999</v>
+      </c>
+      <c r="V10">
+        <v>-3.0026700000000002</v>
+      </c>
+      <c r="W10">
+        <v>21500</v>
+      </c>
+      <c r="X10">
+        <v>2.8698000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>-3.0027499999999998</v>
+      </c>
+      <c r="Z10">
+        <v>23660</v>
+      </c>
+      <c r="AA10">
+        <v>2.6819199999999999</v>
+      </c>
+      <c r="AB10">
+        <v>-3.0025400000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>6387</v>
+      </c>
+      <c r="C11">
+        <v>3.6552799999999999</v>
+      </c>
+      <c r="D11">
+        <v>-3.0029300000000001</v>
+      </c>
+      <c r="E11">
+        <v>8547</v>
+      </c>
+      <c r="F11">
+        <v>3.5748799999999998</v>
+      </c>
+      <c r="G11">
+        <v>-3.0027699999999999</v>
+      </c>
+      <c r="H11">
+        <v>10708</v>
+      </c>
+      <c r="I11">
+        <v>3.4748800000000002</v>
+      </c>
+      <c r="J11">
+        <v>-3.0027400000000002</v>
+      </c>
+      <c r="K11">
+        <v>12868</v>
+      </c>
+      <c r="L11">
+        <v>3.3710499999999999</v>
+      </c>
+      <c r="M11">
+        <v>-3.00291</v>
+      </c>
+      <c r="N11">
+        <v>15029</v>
+      </c>
+      <c r="O11">
+        <v>3.2819600000000002</v>
+      </c>
+      <c r="P11">
+        <v>-3.0024999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>17189</v>
+      </c>
+      <c r="R11">
+        <v>3.1562199999999998</v>
+      </c>
+      <c r="S11">
+        <v>-3.00271</v>
+      </c>
+      <c r="T11">
+        <v>19349</v>
+      </c>
+      <c r="U11">
+        <v>3.0163600000000002</v>
+      </c>
+      <c r="V11">
+        <v>-3.0024799999999998</v>
+      </c>
+      <c r="W11">
+        <v>21510</v>
+      </c>
+      <c r="X11">
+        <v>2.8520300000000001</v>
+      </c>
+      <c r="Y11">
+        <v>-3.0026299999999999</v>
+      </c>
+      <c r="Z11">
+        <v>23670</v>
+      </c>
+      <c r="AA11">
+        <v>2.66486</v>
+      </c>
+      <c r="AB11">
+        <v>-3.0027200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>6397</v>
+      </c>
+      <c r="C12">
+        <v>3.6470899999999999</v>
+      </c>
+      <c r="D12">
+        <v>-3.0028100000000002</v>
+      </c>
+      <c r="E12">
+        <v>8557</v>
+      </c>
+      <c r="F12">
+        <v>3.56915</v>
+      </c>
+      <c r="G12">
+        <v>-3.00258</v>
+      </c>
+      <c r="H12">
+        <v>10718</v>
+      </c>
+      <c r="I12">
+        <v>3.4666700000000001</v>
+      </c>
+      <c r="J12">
+        <v>-3.0026099999999998</v>
+      </c>
+      <c r="K12">
+        <v>12878</v>
+      </c>
+      <c r="L12">
+        <v>3.3653499999999998</v>
+      </c>
+      <c r="M12">
+        <v>-3.0026999999999999</v>
+      </c>
+      <c r="N12">
+        <v>15039</v>
+      </c>
+      <c r="O12">
+        <v>3.2742</v>
+      </c>
+      <c r="P12">
+        <v>-3.0029499999999998</v>
+      </c>
+      <c r="Q12">
+        <v>17199</v>
+      </c>
+      <c r="R12">
+        <v>3.1473</v>
+      </c>
+      <c r="S12">
+        <v>-3.0027400000000002</v>
+      </c>
+      <c r="T12">
+        <v>19359</v>
+      </c>
+      <c r="U12">
+        <v>3.0072000000000001</v>
+      </c>
+      <c r="V12">
+        <v>-3.0026299999999999</v>
+      </c>
+      <c r="W12">
+        <v>21520</v>
+      </c>
+      <c r="X12">
+        <v>2.84077</v>
+      </c>
+      <c r="Y12">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="Z12">
+        <v>23680</v>
+      </c>
+      <c r="AA12">
+        <v>2.65455</v>
+      </c>
+      <c r="AB12">
+        <v>-3.0027599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>6407</v>
+      </c>
+      <c r="C13">
+        <v>3.64032</v>
+      </c>
+      <c r="D13">
+        <v>-3.0026199999999998</v>
+      </c>
+      <c r="E13">
+        <v>8567</v>
+      </c>
+      <c r="F13">
+        <v>3.56447</v>
+      </c>
+      <c r="G13">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="H13">
+        <v>10728</v>
+      </c>
+      <c r="I13">
+        <v>3.4601199999999999</v>
+      </c>
+      <c r="J13">
+        <v>-3.0027900000000001</v>
+      </c>
+      <c r="K13">
+        <v>12888</v>
+      </c>
+      <c r="L13">
+        <v>3.3605399999999999</v>
+      </c>
+      <c r="M13">
+        <v>-3.0030100000000002</v>
+      </c>
+      <c r="N13">
+        <v>15049</v>
+      </c>
+      <c r="O13">
+        <v>3.2679</v>
+      </c>
+      <c r="P13">
+        <v>-3.00292</v>
+      </c>
+      <c r="Q13">
+        <v>17209</v>
+      </c>
+      <c r="R13">
+        <v>3.1397200000000001</v>
+      </c>
+      <c r="S13">
+        <v>-3.0028899999999998</v>
+      </c>
+      <c r="T13">
+        <v>19369</v>
+      </c>
+      <c r="U13">
+        <v>2.9994800000000001</v>
+      </c>
+      <c r="V13">
+        <v>-3.0025900000000001</v>
+      </c>
+      <c r="W13">
+        <v>21530</v>
+      </c>
+      <c r="X13">
+        <v>2.8335300000000001</v>
+      </c>
+      <c r="Y13">
+        <v>-3.0026799999999998</v>
+      </c>
+      <c r="Z13">
+        <v>23690</v>
+      </c>
+      <c r="AA13">
+        <v>2.6481400000000002</v>
+      </c>
+      <c r="AB13">
+        <v>-3.00264</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>6417</v>
+      </c>
+      <c r="C14">
+        <v>3.6346699999999998</v>
+      </c>
+      <c r="D14">
+        <v>-3.00278</v>
+      </c>
+      <c r="E14">
+        <v>8577</v>
+      </c>
+      <c r="F14">
+        <v>3.5605899999999999</v>
+      </c>
+      <c r="G14">
+        <v>-3.0026700000000002</v>
+      </c>
+      <c r="H14">
+        <v>10738</v>
+      </c>
+      <c r="I14">
+        <v>3.4543400000000002</v>
+      </c>
+      <c r="J14">
+        <v>-3.00278</v>
+      </c>
+      <c r="K14">
+        <v>12898</v>
+      </c>
+      <c r="L14">
+        <v>3.3565100000000001</v>
+      </c>
+      <c r="M14">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="N14">
+        <v>15059</v>
+      </c>
+      <c r="O14">
+        <v>3.2622300000000002</v>
+      </c>
+      <c r="P14">
+        <v>-3.00264</v>
+      </c>
+      <c r="Q14">
+        <v>17219</v>
+      </c>
+      <c r="R14">
+        <v>3.13306</v>
+      </c>
+      <c r="S14">
+        <v>-3.00251</v>
+      </c>
+      <c r="T14">
+        <v>19379</v>
+      </c>
+      <c r="U14">
+        <v>2.9931299999999998</v>
+      </c>
+      <c r="V14">
+        <v>-3.00257</v>
+      </c>
+      <c r="W14">
+        <v>21540</v>
+      </c>
+      <c r="X14">
+        <v>2.82857</v>
+      </c>
+      <c r="Y14">
+        <v>-3.0026700000000002</v>
+      </c>
+      <c r="Z14">
+        <v>23700</v>
+      </c>
+      <c r="AA14">
+        <v>2.6436000000000002</v>
+      </c>
+      <c r="AB14">
+        <v>-3.00257</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>6427</v>
+      </c>
+      <c r="C15">
+        <v>3.6301700000000001</v>
+      </c>
+      <c r="D15">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="E15">
+        <v>8587</v>
+      </c>
+      <c r="F15">
+        <v>3.5572300000000001</v>
+      </c>
+      <c r="G15">
+        <v>-3.0029599999999999</v>
+      </c>
+      <c r="H15">
+        <v>10748</v>
+      </c>
+      <c r="I15">
+        <v>3.4495800000000001</v>
+      </c>
+      <c r="J15">
+        <v>-3.0027200000000001</v>
+      </c>
+      <c r="K15">
+        <v>12908</v>
+      </c>
+      <c r="L15">
+        <v>3.3533200000000001</v>
+      </c>
+      <c r="M15">
+        <v>-3.00291</v>
+      </c>
+      <c r="N15">
+        <v>15069</v>
+      </c>
+      <c r="O15">
+        <v>3.2570100000000002</v>
+      </c>
+      <c r="P15">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="Q15">
+        <v>17229</v>
+      </c>
+      <c r="R15">
+        <v>3.1270500000000001</v>
+      </c>
+      <c r="S15">
+        <v>-3.00264</v>
+      </c>
+      <c r="T15">
+        <v>19389</v>
+      </c>
+      <c r="U15">
+        <v>2.98786</v>
+      </c>
+      <c r="V15">
+        <v>-3.0026299999999999</v>
+      </c>
+      <c r="W15">
+        <v>21550</v>
+      </c>
+      <c r="X15">
+        <v>2.82491</v>
+      </c>
+      <c r="Y15">
+        <v>-3.0026000000000002</v>
+      </c>
+      <c r="Z15">
+        <v>23710</v>
+      </c>
+      <c r="AA15">
+        <v>2.6396799999999998</v>
+      </c>
+      <c r="AB15">
+        <v>-3.0024500000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>6437</v>
+      </c>
+      <c r="C16">
+        <v>3.6265399999999999</v>
+      </c>
+      <c r="D16">
+        <v>-3.0028299999999999</v>
+      </c>
+      <c r="E16">
+        <v>8597</v>
+      </c>
+      <c r="F16">
+        <v>3.5543300000000002</v>
+      </c>
+      <c r="G16">
+        <v>-3.00278</v>
+      </c>
+      <c r="H16">
+        <v>10758</v>
+      </c>
+      <c r="I16">
+        <v>3.44543</v>
+      </c>
+      <c r="J16">
+        <v>-3.00291</v>
+      </c>
+      <c r="K16">
+        <v>12918</v>
+      </c>
+      <c r="L16">
+        <v>3.3498899999999998</v>
+      </c>
+      <c r="M16">
+        <v>-3.0027900000000001</v>
+      </c>
+      <c r="N16">
+        <v>15079</v>
+      </c>
+      <c r="O16">
+        <v>3.2528600000000001</v>
+      </c>
+      <c r="P16">
+        <v>-3.0026799999999998</v>
+      </c>
+      <c r="Q16">
+        <v>17239</v>
+      </c>
+      <c r="R16">
+        <v>3.1219800000000002</v>
+      </c>
+      <c r="S16">
+        <v>-3.0025900000000001</v>
+      </c>
+      <c r="T16">
+        <v>19399</v>
+      </c>
+      <c r="U16">
+        <v>2.98319</v>
+      </c>
+      <c r="V16">
+        <v>-3.0026799999999998</v>
+      </c>
+      <c r="W16">
+        <v>21560</v>
+      </c>
+      <c r="X16">
+        <v>2.82152</v>
+      </c>
+      <c r="Y16">
+        <v>-3.0026099999999998</v>
+      </c>
+      <c r="Z16">
+        <v>23720</v>
+      </c>
+      <c r="AA16">
+        <v>2.6357200000000001</v>
+      </c>
+      <c r="AB16">
+        <v>-3.0026099999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>6447</v>
+      </c>
+      <c r="C17">
+        <v>3.6227200000000002</v>
+      </c>
+      <c r="D17">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="E17">
+        <v>8607</v>
+      </c>
+      <c r="F17">
+        <v>3.5517500000000002</v>
+      </c>
+      <c r="G17">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="H17">
+        <v>10768</v>
+      </c>
+      <c r="I17">
+        <v>3.4416099999999998</v>
+      </c>
+      <c r="J17">
+        <v>-3.00264</v>
+      </c>
+      <c r="K17">
+        <v>12928</v>
+      </c>
+      <c r="L17">
+        <v>3.3467199999999999</v>
+      </c>
+      <c r="M17">
+        <v>-3.00299</v>
+      </c>
+      <c r="N17">
+        <v>15089</v>
+      </c>
+      <c r="O17">
+        <v>3.2484799999999998</v>
+      </c>
+      <c r="P17">
+        <v>-3.0026299999999999</v>
+      </c>
+      <c r="Q17">
+        <v>17249</v>
+      </c>
+      <c r="R17">
+        <v>3.1172300000000002</v>
+      </c>
+      <c r="S17">
+        <v>-3.0025499999999998</v>
+      </c>
+      <c r="T17">
+        <v>19409</v>
+      </c>
+      <c r="U17">
+        <v>2.9792299999999998</v>
+      </c>
+      <c r="V17">
+        <v>-3.0026600000000001</v>
+      </c>
+      <c r="W17">
+        <v>21570</v>
+      </c>
+      <c r="X17">
+        <v>2.81799</v>
+      </c>
+      <c r="Y17">
+        <v>-3.00257</v>
+      </c>
+      <c r="Z17">
+        <v>23730</v>
+      </c>
+      <c r="AA17">
+        <v>2.6316099999999998</v>
+      </c>
+      <c r="AB17">
+        <v>-3.0028600000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>6457</v>
+      </c>
+      <c r="C18">
+        <v>3.61944</v>
+      </c>
+      <c r="D18">
+        <v>-3.0026299999999999</v>
+      </c>
+      <c r="E18">
+        <v>8617</v>
+      </c>
+      <c r="F18">
+        <v>3.5490699999999999</v>
+      </c>
+      <c r="G18">
+        <v>-3.0028000000000001</v>
+      </c>
+      <c r="H18">
+        <v>10778</v>
+      </c>
+      <c r="I18">
+        <v>3.4378199999999999</v>
+      </c>
+      <c r="J18">
+        <v>-3.0026299999999999</v>
+      </c>
+      <c r="K18">
+        <v>12938</v>
+      </c>
+      <c r="L18">
+        <v>3.3438099999999999</v>
+      </c>
+      <c r="M18">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="N18">
+        <v>15099</v>
+      </c>
+      <c r="O18">
+        <v>3.24431</v>
+      </c>
+      <c r="P18">
+        <v>-3.0025900000000001</v>
+      </c>
+      <c r="Q18">
+        <v>17259</v>
+      </c>
+      <c r="R18">
+        <v>3.1126</v>
+      </c>
+      <c r="S18">
+        <v>-3.00271</v>
+      </c>
+      <c r="T18">
+        <v>19419</v>
+      </c>
+      <c r="U18">
+        <v>2.9755099999999999</v>
+      </c>
+      <c r="V18">
+        <v>-3.00264</v>
+      </c>
+      <c r="W18">
+        <v>21580</v>
+      </c>
+      <c r="X18">
+        <v>2.8143099999999999</v>
+      </c>
+      <c r="Y18">
+        <v>-3.0025300000000001</v>
+      </c>
+      <c r="Z18">
+        <v>23740</v>
+      </c>
+      <c r="AA18">
+        <v>2.6271599999999999</v>
+      </c>
+      <c r="AB18">
+        <v>-3.0027599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>6467</v>
+      </c>
+      <c r="C19">
+        <v>3.6164700000000001</v>
+      </c>
+      <c r="D19">
+        <v>-3.00298</v>
+      </c>
+      <c r="E19">
+        <v>8627</v>
+      </c>
+      <c r="F19">
+        <v>3.5466000000000002</v>
+      </c>
+      <c r="G19">
+        <v>-3.0029499999999998</v>
+      </c>
+      <c r="H19">
+        <v>10788</v>
+      </c>
+      <c r="I19">
+        <v>3.4340899999999999</v>
+      </c>
+      <c r="J19">
+        <v>-3.00257</v>
+      </c>
+      <c r="K19">
+        <v>12948</v>
+      </c>
+      <c r="L19">
+        <v>3.3410199999999999</v>
+      </c>
+      <c r="M19">
+        <v>-3.0027400000000002</v>
+      </c>
+      <c r="N19">
+        <v>15109</v>
+      </c>
+      <c r="O19">
+        <v>3.24003</v>
+      </c>
+      <c r="P19">
+        <v>-3.0028800000000002</v>
+      </c>
+      <c r="Q19">
+        <v>17269</v>
+      </c>
+      <c r="R19">
+        <v>3.1083500000000002</v>
+      </c>
+      <c r="S19">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="T19">
+        <v>19429</v>
+      </c>
+      <c r="U19">
+        <v>2.9718</v>
+      </c>
+      <c r="V19">
+        <v>-3.00265</v>
+      </c>
+      <c r="W19">
+        <v>21590</v>
+      </c>
+      <c r="X19">
+        <v>2.8107600000000001</v>
+      </c>
+      <c r="Y19">
+        <v>-3.0027400000000002</v>
+      </c>
+      <c r="Z19">
+        <v>23750</v>
+      </c>
+      <c r="AA19">
+        <v>2.6224799999999999</v>
+      </c>
+      <c r="AB19">
+        <v>-3.0025599999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>6477</v>
+      </c>
+      <c r="C20">
+        <v>3.6136699999999999</v>
+      </c>
+      <c r="D20">
+        <v>-3.00278</v>
+      </c>
+      <c r="E20">
+        <v>8637</v>
+      </c>
+      <c r="F20">
+        <v>3.5441799999999999</v>
+      </c>
+      <c r="G20">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="H20">
+        <v>10798</v>
+      </c>
+      <c r="I20">
+        <v>3.43058</v>
+      </c>
+      <c r="J20">
+        <v>-3.0028700000000002</v>
+      </c>
+      <c r="K20">
+        <v>12958</v>
+      </c>
+      <c r="L20">
+        <v>3.3382200000000002</v>
+      </c>
+      <c r="M20">
+        <v>-3.0026099999999998</v>
+      </c>
+      <c r="N20">
+        <v>15119</v>
+      </c>
+      <c r="O20">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="P20">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="Q20">
+        <v>17279</v>
+      </c>
+      <c r="R20">
+        <v>3.10412</v>
+      </c>
+      <c r="S20">
+        <v>-3.0027900000000001</v>
+      </c>
+      <c r="T20">
+        <v>19439</v>
+      </c>
+      <c r="U20">
+        <v>2.96828</v>
+      </c>
+      <c r="V20">
+        <v>-3.0026099999999998</v>
+      </c>
+      <c r="W20">
+        <v>21600</v>
+      </c>
+      <c r="X20">
+        <v>2.8068399999999998</v>
+      </c>
+      <c r="Y20">
+        <v>-3.0028100000000002</v>
+      </c>
+      <c r="Z20">
+        <v>23760</v>
+      </c>
+      <c r="AA20">
+        <v>2.6174400000000002</v>
+      </c>
+      <c r="AB20">
+        <v>-3.0026600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>6487</v>
+      </c>
+      <c r="C21">
+        <v>3.6110699999999998</v>
+      </c>
+      <c r="D21">
+        <v>-3.0028899999999998</v>
+      </c>
+      <c r="E21">
+        <v>8647</v>
+      </c>
+      <c r="F21">
+        <v>3.54182</v>
+      </c>
+      <c r="G21">
+        <v>-3.0028000000000001</v>
+      </c>
+      <c r="H21">
+        <v>10808</v>
+      </c>
+      <c r="I21">
+        <v>3.4269500000000002</v>
+      </c>
+      <c r="J21">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="K21">
+        <v>12968</v>
+      </c>
+      <c r="L21">
+        <v>3.3354499999999998</v>
+      </c>
+      <c r="M21">
+        <v>-3.00271</v>
+      </c>
+      <c r="N21">
+        <v>15129</v>
+      </c>
+      <c r="O21">
+        <v>3.2323</v>
+      </c>
+      <c r="P21">
+        <v>-3.00292</v>
+      </c>
+      <c r="Q21">
+        <v>17289</v>
+      </c>
+      <c r="R21">
+        <v>3.1002900000000002</v>
+      </c>
+      <c r="S21">
+        <v>-3.0023900000000001</v>
+      </c>
+      <c r="T21">
+        <v>19449</v>
+      </c>
+      <c r="U21">
+        <v>2.9645100000000002</v>
+      </c>
+      <c r="V21">
+        <v>-3.00271</v>
+      </c>
+      <c r="W21">
+        <v>21610</v>
+      </c>
+      <c r="X21">
+        <v>2.8026</v>
+      </c>
+      <c r="Y21">
+        <v>-3.0025599999999999</v>
+      </c>
+      <c r="Z21">
+        <v>23770</v>
+      </c>
+      <c r="AA21">
+        <v>2.61266</v>
+      </c>
+      <c r="AB21">
+        <v>-3.00251</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>6497</v>
+      </c>
+      <c r="C22">
+        <v>3.60839</v>
+      </c>
+      <c r="D22">
+        <v>-3.0028600000000001</v>
+      </c>
+      <c r="E22">
+        <v>8657</v>
+      </c>
+      <c r="F22">
+        <v>3.5393599999999998</v>
+      </c>
+      <c r="G22">
+        <v>-3.0027499999999998</v>
+      </c>
+      <c r="H22">
+        <v>10818</v>
+      </c>
+      <c r="I22">
+        <v>3.4234800000000001</v>
+      </c>
+      <c r="J22">
+        <v>-3.0030299999999999</v>
+      </c>
+      <c r="K22">
+        <v>12978</v>
+      </c>
+      <c r="L22">
+        <v>3.3328799999999998</v>
+      </c>
+      <c r="M22">
+        <v>-3.0028700000000002</v>
+      </c>
+      <c r="N22">
+        <v>15139</v>
+      </c>
+      <c r="O22">
+        <v>3.22831</v>
+      </c>
+      <c r="P22">
+        <v>-3.0027499999999998</v>
+      </c>
+      <c r="Q22">
+        <v>17299</v>
+      </c>
+      <c r="R22">
+        <v>3.09639</v>
+      </c>
+      <c r="S22">
+        <v>-3.0024899999999999</v>
+      </c>
+      <c r="T22">
+        <v>19459</v>
+      </c>
+      <c r="U22">
+        <v>2.9609999999999999</v>
+      </c>
+      <c r="V22">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="W22">
+        <v>21620</v>
+      </c>
+      <c r="X22">
+        <v>2.7986200000000001</v>
+      </c>
+      <c r="Y22">
+        <v>-3.0025200000000001</v>
+      </c>
+      <c r="Z22">
+        <v>23780</v>
+      </c>
+      <c r="AA22">
+        <v>2.6078199999999998</v>
+      </c>
+      <c r="AB22">
+        <v>-3.0025400000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>6507</v>
+      </c>
+      <c r="C23">
+        <v>3.60616</v>
+      </c>
+      <c r="D23">
+        <v>-3.0028700000000002</v>
+      </c>
+      <c r="E23">
+        <v>8667</v>
+      </c>
+      <c r="F23">
+        <v>3.5367799999999998</v>
+      </c>
+      <c r="G23">
+        <v>-3.00285</v>
+      </c>
+      <c r="H23">
+        <v>10828</v>
+      </c>
+      <c r="I23">
+        <v>3.4204699999999999</v>
+      </c>
+      <c r="J23">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="K23">
+        <v>12988</v>
+      </c>
+      <c r="L23">
+        <v>3.3300700000000001</v>
+      </c>
+      <c r="M23">
+        <v>-3.0028899999999998</v>
+      </c>
+      <c r="N23">
+        <v>15149</v>
+      </c>
+      <c r="O23">
+        <v>3.2243400000000002</v>
+      </c>
+      <c r="P23">
+        <v>-3.0027200000000001</v>
+      </c>
+      <c r="Q23">
+        <v>17309</v>
+      </c>
+      <c r="R23">
+        <v>3.0925400000000001</v>
+      </c>
+      <c r="S23">
+        <v>-3.0025499999999998</v>
+      </c>
+      <c r="T23">
+        <v>19469</v>
+      </c>
+      <c r="U23">
+        <v>2.9571499999999999</v>
+      </c>
+      <c r="V23">
+        <v>-3.00265</v>
+      </c>
+      <c r="W23">
+        <v>21630</v>
+      </c>
+      <c r="X23">
+        <v>2.7941099999999999</v>
+      </c>
+      <c r="Y23">
+        <v>-3.0026600000000001</v>
+      </c>
+      <c r="Z23">
+        <v>23790</v>
+      </c>
+      <c r="AA23">
+        <v>2.6024799999999999</v>
+      </c>
+      <c r="AB23">
+        <v>-3.00271</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>6517</v>
+      </c>
+      <c r="C24">
+        <v>3.60412</v>
+      </c>
+      <c r="D24">
+        <v>-3.0027900000000001</v>
+      </c>
+      <c r="E24">
+        <v>8677</v>
+      </c>
+      <c r="F24">
+        <v>3.5341200000000002</v>
+      </c>
+      <c r="G24">
+        <v>-3.00284</v>
+      </c>
+      <c r="H24">
+        <v>10838</v>
+      </c>
+      <c r="I24">
+        <v>3.4171800000000001</v>
+      </c>
+      <c r="J24">
+        <v>-3.00271</v>
+      </c>
+      <c r="K24">
+        <v>12998</v>
+      </c>
+      <c r="L24">
+        <v>3.3271899999999999</v>
+      </c>
+      <c r="M24">
+        <v>-3.0027200000000001</v>
+      </c>
+      <c r="N24">
+        <v>15159</v>
+      </c>
+      <c r="O24">
+        <v>3.2204799999999998</v>
+      </c>
+      <c r="P24">
+        <v>-3.0028999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>17319</v>
+      </c>
+      <c r="R24">
+        <v>3.0889899999999999</v>
+      </c>
+      <c r="S24">
+        <v>-3.0026299999999999</v>
+      </c>
+      <c r="T24">
+        <v>19479</v>
+      </c>
+      <c r="U24">
+        <v>2.9532400000000001</v>
+      </c>
+      <c r="V24">
+        <v>-3.0028100000000002</v>
+      </c>
+      <c r="W24">
+        <v>21640</v>
+      </c>
+      <c r="X24">
+        <v>2.7896399999999999</v>
+      </c>
+      <c r="Y24">
+        <v>-3.0026600000000001</v>
+      </c>
+      <c r="Z24">
+        <v>23800</v>
+      </c>
+      <c r="AA24">
+        <v>2.5970499999999999</v>
+      </c>
+      <c r="AB24">
+        <v>-3.00264</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>6527</v>
+      </c>
+      <c r="C25">
+        <v>3.6019399999999999</v>
+      </c>
+      <c r="D25">
+        <v>-3.0028600000000001</v>
+      </c>
+      <c r="E25">
+        <v>8687</v>
+      </c>
+      <c r="F25">
+        <v>3.53152</v>
+      </c>
+      <c r="G25">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="H25">
+        <v>10848</v>
+      </c>
+      <c r="I25">
+        <v>3.4140100000000002</v>
+      </c>
+      <c r="J25">
+        <v>-3.0027400000000002</v>
+      </c>
+      <c r="K25">
+        <v>13008</v>
+      </c>
+      <c r="L25">
+        <v>3.32457</v>
+      </c>
+      <c r="M25">
+        <v>-3.0030100000000002</v>
+      </c>
+      <c r="N25">
+        <v>15169</v>
+      </c>
+      <c r="O25">
+        <v>3.2166899999999998</v>
+      </c>
+      <c r="P25">
+        <v>-3.0028100000000002</v>
+      </c>
+      <c r="Q25">
+        <v>17329</v>
+      </c>
+      <c r="R25">
+        <v>3.0853299999999999</v>
+      </c>
+      <c r="S25">
+        <v>-3.0024199999999999</v>
+      </c>
+      <c r="T25">
+        <v>19489</v>
+      </c>
+      <c r="U25">
+        <v>2.9493499999999999</v>
+      </c>
+      <c r="V25">
+        <v>-3.0025900000000001</v>
+      </c>
+      <c r="W25">
+        <v>21650</v>
+      </c>
+      <c r="X25">
+        <v>2.7852600000000001</v>
+      </c>
+      <c r="Y25">
+        <v>-3.0026199999999998</v>
+      </c>
+      <c r="Z25">
+        <v>23810</v>
+      </c>
+      <c r="AA25">
+        <v>2.5913599999999999</v>
+      </c>
+      <c r="AB25">
+        <v>-3.00265</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>6537</v>
+      </c>
+      <c r="C26">
+        <v>3.6000200000000002</v>
+      </c>
+      <c r="D26">
+        <v>-3.0027699999999999</v>
+      </c>
+      <c r="E26">
+        <v>8697</v>
+      </c>
+      <c r="F26">
+        <v>3.5289600000000001</v>
+      </c>
+      <c r="G26">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="H26">
+        <v>10858</v>
+      </c>
+      <c r="I26">
+        <v>3.4109699999999998</v>
+      </c>
+      <c r="J26">
+        <v>-3.0027699999999999</v>
+      </c>
+      <c r="K26">
+        <v>13018</v>
+      </c>
+      <c r="L26">
+        <v>3.3219599999999998</v>
+      </c>
+      <c r="M26">
+        <v>-3.0029400000000002</v>
+      </c>
+      <c r="N26">
+        <v>15179</v>
+      </c>
+      <c r="O26">
+        <v>3.2127300000000001</v>
+      </c>
+      <c r="P26">
+        <v>-3.0028199999999998</v>
+      </c>
+      <c r="Q26">
+        <v>17339</v>
+      </c>
+      <c r="R26">
+        <v>3.0819100000000001</v>
+      </c>
+      <c r="S26">
+        <v>-3.00278</v>
+      </c>
+      <c r="T26">
+        <v>19499</v>
+      </c>
+      <c r="U26">
+        <v>2.9456899999999999</v>
+      </c>
+      <c r="V26">
+        <v>-3.0028000000000001</v>
+      </c>
+      <c r="W26">
+        <v>21660</v>
+      </c>
+      <c r="X26">
+        <v>2.7807200000000001</v>
+      </c>
+      <c r="Y26">
+        <v>-3.0026600000000001</v>
+      </c>
+      <c r="Z26">
+        <v>23820</v>
+      </c>
+      <c r="AA26">
+        <v>2.5856400000000002</v>
+      </c>
+      <c r="AB26">
+        <v>-3.0026000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>6547</v>
+      </c>
+      <c r="C27">
+        <v>3.59802</v>
+      </c>
+      <c r="D27">
+        <v>-3.0028600000000001</v>
+      </c>
+      <c r="E27">
+        <v>8707</v>
+      </c>
+      <c r="F27">
+        <v>3.52643</v>
+      </c>
+      <c r="G27">
+        <v>-3.0026099999999998</v>
+      </c>
+      <c r="H27">
+        <v>10868</v>
+      </c>
+      <c r="I27">
+        <v>3.4081199999999998</v>
+      </c>
+      <c r="J27">
+        <v>-3.0029400000000002</v>
+      </c>
+      <c r="K27">
+        <v>13028</v>
+      </c>
+      <c r="L27">
+        <v>3.31928</v>
+      </c>
+      <c r="M27">
+        <v>-3.0027900000000001</v>
+      </c>
+      <c r="N27">
+        <v>15189</v>
+      </c>
+      <c r="O27">
+        <v>3.2091699999999999</v>
+      </c>
+      <c r="P27">
+        <v>-3.0026199999999998</v>
+      </c>
+      <c r="Q27">
+        <v>17349</v>
+      </c>
+      <c r="R27">
+        <v>3.07843</v>
+      </c>
+      <c r="S27">
+        <v>-3.0028600000000001</v>
+      </c>
+      <c r="T27">
+        <v>19509</v>
+      </c>
+      <c r="U27">
+        <v>2.9417200000000001</v>
+      </c>
+      <c r="V27">
+        <v>-3.0025599999999999</v>
+      </c>
+      <c r="W27">
+        <v>21670</v>
+      </c>
+      <c r="X27">
+        <v>2.7764099999999998</v>
+      </c>
+      <c r="Y27">
+        <v>-3.0026099999999998</v>
+      </c>
+      <c r="Z27">
+        <v>23830</v>
+      </c>
+      <c r="AA27">
+        <v>2.5798700000000001</v>
+      </c>
+      <c r="AB27">
+        <v>-3.0026099999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>6557</v>
+      </c>
+      <c r="C28">
+        <v>3.5961500000000002</v>
+      </c>
+      <c r="D28">
+        <v>-3.0027499999999998</v>
+      </c>
+      <c r="E28">
+        <v>8717</v>
+      </c>
+      <c r="F28">
+        <v>3.52393</v>
+      </c>
+      <c r="G28">
+        <v>-3.00265</v>
+      </c>
+      <c r="H28">
+        <v>10878</v>
+      </c>
+      <c r="I28">
+        <v>3.4054700000000002</v>
+      </c>
+      <c r="J28">
+        <v>-3.0028199999999998</v>
+      </c>
+      <c r="K28">
+        <v>13038</v>
+      </c>
+      <c r="L28">
+        <v>3.3170099999999998</v>
+      </c>
+      <c r="M28">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="N28">
+        <v>15199</v>
+      </c>
+      <c r="O28">
+        <v>3.2055500000000001</v>
+      </c>
+      <c r="P28">
+        <v>-3.0028100000000002</v>
+      </c>
+      <c r="Q28">
+        <v>17359</v>
+      </c>
+      <c r="R28">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="S28">
+        <v>-3.00257</v>
+      </c>
+      <c r="T28">
+        <v>19519</v>
+      </c>
+      <c r="U28">
+        <v>2.9380299999999999</v>
+      </c>
+      <c r="V28">
+        <v>-3.0025400000000002</v>
+      </c>
+      <c r="W28">
+        <v>21680</v>
+      </c>
+      <c r="X28">
+        <v>2.7717299999999998</v>
+      </c>
+      <c r="Y28">
+        <v>-3.00278</v>
+      </c>
+      <c r="Z28">
+        <v>23840</v>
+      </c>
+      <c r="AA28">
+        <v>2.5738400000000001</v>
+      </c>
+      <c r="AB28">
+        <v>-3.0024700000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>6567</v>
+      </c>
+      <c r="C29">
+        <v>3.5943700000000001</v>
+      </c>
+      <c r="D29">
+        <v>-3.0028700000000002</v>
+      </c>
+      <c r="E29">
+        <v>8727</v>
+      </c>
+      <c r="F29">
+        <v>3.5211199999999998</v>
+      </c>
+      <c r="G29">
+        <v>-3.0026600000000001</v>
+      </c>
+      <c r="H29">
+        <v>10888</v>
+      </c>
+      <c r="I29">
+        <v>3.4026000000000001</v>
+      </c>
+      <c r="J29">
+        <v>-3.0029599999999999</v>
+      </c>
+      <c r="K29">
+        <v>13048</v>
+      </c>
+      <c r="L29">
+        <v>3.3146200000000001</v>
+      </c>
+      <c r="M29">
+        <v>-3.00284</v>
+      </c>
+      <c r="N29">
+        <v>15209</v>
+      </c>
+      <c r="O29">
+        <v>3.2017699999999998</v>
+      </c>
+      <c r="P29">
+        <v>-3.0028100000000002</v>
+      </c>
+      <c r="Q29">
+        <v>17369</v>
+      </c>
+      <c r="R29">
+        <v>3.0714700000000001</v>
+      </c>
+      <c r="S29">
+        <v>-3.0025400000000002</v>
+      </c>
+      <c r="T29">
+        <v>19529</v>
+      </c>
+      <c r="U29">
+        <v>2.93424</v>
+      </c>
+      <c r="V29">
+        <v>-3.00265</v>
+      </c>
+      <c r="W29">
+        <v>21690</v>
+      </c>
+      <c r="X29">
+        <v>2.76742</v>
+      </c>
+      <c r="Y29">
+        <v>-3.0026999999999999</v>
+      </c>
+      <c r="Z29">
+        <v>23850</v>
+      </c>
+      <c r="AA29">
+        <v>2.5677400000000001</v>
+      </c>
+      <c r="AB29">
+        <v>-3.0026000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>6577</v>
+      </c>
+      <c r="C30">
+        <v>3.5925400000000001</v>
+      </c>
+      <c r="D30">
+        <v>-3.0027200000000001</v>
+      </c>
+      <c r="E30">
+        <v>8737</v>
+      </c>
+      <c r="F30">
+        <v>3.5181399999999998</v>
+      </c>
+      <c r="G30">
+        <v>-3.00278</v>
+      </c>
+      <c r="H30">
+        <v>10898</v>
+      </c>
+      <c r="I30">
+        <v>3.3997799999999998</v>
+      </c>
+      <c r="J30">
+        <v>-3.0028199999999998</v>
+      </c>
+      <c r="K30">
+        <v>13058</v>
+      </c>
+      <c r="L30">
+        <v>3.3120099999999999</v>
+      </c>
+      <c r="M30">
+        <v>-3.0028800000000002</v>
+      </c>
+      <c r="N30">
+        <v>15219</v>
+      </c>
+      <c r="O30">
+        <v>3.1979799999999998</v>
+      </c>
+      <c r="P30">
+        <v>-3.0026199999999998</v>
+      </c>
+      <c r="Q30">
+        <v>17379</v>
+      </c>
+      <c r="R30">
+        <v>3.0678299999999998</v>
+      </c>
+      <c r="S30">
+        <v>-3.0027400000000002</v>
+      </c>
+      <c r="T30">
+        <v>19539</v>
+      </c>
+      <c r="U30">
+        <v>2.9303499999999998</v>
+      </c>
+      <c r="V30">
+        <v>-3.0027200000000001</v>
+      </c>
+      <c r="W30">
+        <v>21700</v>
+      </c>
+      <c r="X30">
+        <v>2.7631700000000001</v>
+      </c>
+      <c r="Y30">
+        <v>-3.0026799999999998</v>
+      </c>
+      <c r="Z30">
+        <v>23860</v>
+      </c>
+      <c r="AA30">
+        <v>2.5614400000000002</v>
+      </c>
+      <c r="AB30">
+        <v>-3.00265</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>6587</v>
+      </c>
+      <c r="C31">
+        <v>3.5908600000000002</v>
+      </c>
+      <c r="D31">
+        <v>-3.0027900000000001</v>
+      </c>
+      <c r="E31">
+        <v>8747</v>
+      </c>
+      <c r="F31">
+        <v>3.51532</v>
+      </c>
+      <c r="G31">
+        <v>-3.0026000000000002</v>
+      </c>
+      <c r="H31">
+        <v>10908</v>
+      </c>
+      <c r="I31">
+        <v>3.3971200000000001</v>
+      </c>
+      <c r="J31">
+        <v>-3.0027499999999998</v>
+      </c>
+      <c r="K31">
+        <v>13068</v>
+      </c>
+      <c r="L31">
+        <v>3.3094899999999998</v>
+      </c>
+      <c r="M31">
+        <v>-3.0026799999999998</v>
+      </c>
+      <c r="N31">
+        <v>15229</v>
+      </c>
+      <c r="O31">
+        <v>3.1941999999999999</v>
+      </c>
+      <c r="P31">
+        <v>-3.0028600000000001</v>
+      </c>
+      <c r="Q31">
+        <v>17389</v>
+      </c>
+      <c r="R31">
+        <v>3.0644300000000002</v>
+      </c>
+      <c r="S31">
+        <v>-3.0028199999999998</v>
+      </c>
+      <c r="T31">
+        <v>19549</v>
+      </c>
+      <c r="U31">
+        <v>2.9264700000000001</v>
+      </c>
+      <c r="V31">
+        <v>-3.0025900000000001</v>
+      </c>
+      <c r="W31">
+        <v>21710</v>
+      </c>
+      <c r="X31">
+        <v>2.75909</v>
+      </c>
+      <c r="Y31">
+        <v>-3.0028000000000001</v>
+      </c>
+      <c r="Z31">
+        <v>23870</v>
+      </c>
+      <c r="AA31">
+        <v>2.5551300000000001</v>
+      </c>
+      <c r="AB31">
+        <v>-3.0025499999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>6597</v>
+      </c>
+      <c r="C32">
+        <v>3.58928</v>
+      </c>
+      <c r="D32">
+        <v>-3.0027699999999999</v>
+      </c>
+      <c r="E32">
+        <v>8757</v>
+      </c>
+      <c r="F32">
+        <v>3.5124300000000002</v>
+      </c>
+      <c r="G32">
+        <v>-3.0026099999999998</v>
+      </c>
+      <c r="H32">
+        <v>10918</v>
+      </c>
+      <c r="I32">
+        <v>3.3943500000000002</v>
+      </c>
+      <c r="J32">
+        <v>-3.0030100000000002</v>
+      </c>
+      <c r="K32">
+        <v>13078</v>
+      </c>
+      <c r="L32">
+        <v>3.3069299999999999</v>
+      </c>
+      <c r="M32">
+        <v>-3.0027499999999998</v>
+      </c>
+      <c r="N32">
+        <v>15239</v>
+      </c>
+      <c r="O32">
+        <v>3.1904499999999998</v>
+      </c>
+      <c r="P32">
+        <v>-3.0026700000000002</v>
+      </c>
+      <c r="Q32">
+        <v>17399</v>
+      </c>
+      <c r="R32">
+        <v>3.0608</v>
+      </c>
+      <c r="S32">
+        <v>-3.00292</v>
+      </c>
+      <c r="T32">
+        <v>19559</v>
+      </c>
+      <c r="U32">
+        <v>2.9224800000000002</v>
+      </c>
+      <c r="V32">
+        <v>-3.0026000000000002</v>
+      </c>
+      <c r="W32">
+        <v>21720</v>
+      </c>
+      <c r="X32">
+        <v>2.7548300000000001</v>
+      </c>
+      <c r="Y32">
+        <v>-3.0026999999999999</v>
+      </c>
+      <c r="Z32">
+        <v>23880</v>
+      </c>
+      <c r="AA32">
+        <v>2.54874</v>
+      </c>
+      <c r="AB32">
+        <v>-3.00231</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>6607</v>
+      </c>
+      <c r="C33">
+        <v>3.58771</v>
+      </c>
+      <c r="D33">
+        <v>-3.0028700000000002</v>
+      </c>
+      <c r="E33">
+        <v>8767</v>
+      </c>
+      <c r="F33">
+        <v>3.5091000000000001</v>
+      </c>
+      <c r="G33">
+        <v>-3.00264</v>
+      </c>
+      <c r="H33">
+        <v>10928</v>
+      </c>
+      <c r="I33">
+        <v>3.39175</v>
+      </c>
+      <c r="J33">
+        <v>-3.00278</v>
+      </c>
+      <c r="K33">
+        <v>13088</v>
+      </c>
+      <c r="L33">
+        <v>3.30443</v>
+      </c>
+      <c r="M33">
+        <v>-3.00278</v>
+      </c>
+      <c r="N33">
+        <v>15249</v>
+      </c>
+      <c r="O33">
+        <v>3.1867700000000001</v>
+      </c>
+      <c r="P33">
+        <v>-3.0028800000000002</v>
+      </c>
+      <c r="Q33">
+        <v>17409</v>
+      </c>
+      <c r="R33">
+        <v>3.0575100000000002</v>
+      </c>
+      <c r="S33">
+        <v>-3.0027400000000002</v>
+      </c>
+      <c r="T33">
+        <v>19569</v>
+      </c>
+      <c r="U33">
+        <v>2.9183300000000001</v>
+      </c>
+      <c r="V33">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="W33">
+        <v>21730</v>
+      </c>
+      <c r="X33">
+        <v>2.7500900000000001</v>
+      </c>
+      <c r="Y33">
+        <v>-3.0025900000000001</v>
+      </c>
+      <c r="Z33">
+        <v>23890</v>
+      </c>
+      <c r="AA33">
+        <v>2.5423800000000001</v>
+      </c>
+      <c r="AB33">
+        <v>-3.0026700000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>6617</v>
+      </c>
+      <c r="C34">
+        <v>3.5858500000000002</v>
+      </c>
+      <c r="D34">
+        <v>-3.0028199999999998</v>
+      </c>
+      <c r="E34">
+        <v>8777</v>
+      </c>
+      <c r="F34">
+        <v>3.5060099999999998</v>
+      </c>
+      <c r="G34">
+        <v>-3.0027900000000001</v>
+      </c>
+      <c r="H34">
+        <v>10938</v>
+      </c>
+      <c r="I34">
+        <v>3.38923</v>
+      </c>
+      <c r="J34">
+        <v>-3.00278</v>
+      </c>
+      <c r="K34">
+        <v>13098</v>
+      </c>
+      <c r="L34">
+        <v>3.3018299999999998</v>
+      </c>
+      <c r="M34">
+        <v>-3.0027200000000001</v>
+      </c>
+      <c r="N34">
+        <v>15259</v>
+      </c>
+      <c r="O34">
+        <v>3.1830799999999999</v>
+      </c>
+      <c r="P34">
+        <v>-3.0030000000000001</v>
+      </c>
+      <c r="Q34">
+        <v>17419</v>
+      </c>
+      <c r="R34">
+        <v>3.0539900000000002</v>
+      </c>
+      <c r="S34">
+        <v>-3.0026600000000001</v>
+      </c>
+      <c r="T34">
+        <v>19579</v>
+      </c>
+      <c r="U34">
+        <v>2.91432</v>
+      </c>
+      <c r="V34">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="W34">
+        <v>21740</v>
+      </c>
+      <c r="X34">
+        <v>2.7457400000000001</v>
+      </c>
+      <c r="Y34">
+        <v>-3.00264</v>
+      </c>
+      <c r="Z34">
+        <v>23900</v>
+      </c>
+      <c r="AA34">
+        <v>2.53552</v>
+      </c>
+      <c r="AB34">
+        <v>-3.0025200000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>6627</v>
+      </c>
+      <c r="C35">
+        <v>3.5844299999999998</v>
+      </c>
+      <c r="D35">
+        <v>-3.0026700000000002</v>
+      </c>
+      <c r="E35">
+        <v>8787</v>
+      </c>
+      <c r="F35">
+        <v>3.50271</v>
+      </c>
+      <c r="G35">
+        <v>-3.0028000000000001</v>
+      </c>
+      <c r="H35">
+        <v>10948</v>
+      </c>
+      <c r="I35">
+        <v>3.3865400000000001</v>
+      </c>
+      <c r="J35">
+        <v>-3.0026199999999998</v>
+      </c>
+      <c r="K35">
+        <v>13108</v>
+      </c>
+      <c r="L35">
+        <v>3.29921</v>
+      </c>
+      <c r="M35">
+        <v>-3.00284</v>
+      </c>
+      <c r="N35">
+        <v>15269</v>
+      </c>
+      <c r="O35">
+        <v>3.1792699999999998</v>
+      </c>
+      <c r="P35">
+        <v>-3.0029499999999998</v>
+      </c>
+      <c r="Q35">
+        <v>17429</v>
+      </c>
+      <c r="R35">
+        <v>3.0503999999999998</v>
+      </c>
+      <c r="S35">
+        <v>-3.0026799999999998</v>
+      </c>
+      <c r="T35">
+        <v>19589</v>
+      </c>
+      <c r="U35">
+        <v>2.91031</v>
+      </c>
+      <c r="V35">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="W35">
+        <v>21750</v>
+      </c>
+      <c r="X35">
+        <v>2.7412899999999998</v>
+      </c>
+      <c r="Y35">
+        <v>-3.0026000000000002</v>
+      </c>
+      <c r="Z35">
+        <v>23910</v>
+      </c>
+      <c r="AA35">
+        <v>2.5281099999999999</v>
+      </c>
+      <c r="AB35">
+        <v>-3.0025900000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>6637</v>
+      </c>
+      <c r="C36">
+        <v>3.5831</v>
+      </c>
+      <c r="D36">
+        <v>-3.0026999999999999</v>
+      </c>
+      <c r="E36">
+        <v>8797</v>
+      </c>
+      <c r="F36">
+        <v>3.4995599999999998</v>
+      </c>
+      <c r="G36">
+        <v>-3.0028899999999998</v>
+      </c>
+      <c r="H36">
+        <v>10958</v>
+      </c>
+      <c r="I36">
+        <v>3.38381</v>
+      </c>
+      <c r="J36">
+        <v>-3.00264</v>
+      </c>
+      <c r="K36">
+        <v>13118</v>
+      </c>
+      <c r="L36">
+        <v>3.2965100000000001</v>
+      </c>
+      <c r="M36">
+        <v>-3.0025900000000001</v>
+      </c>
+      <c r="N36">
+        <v>15279</v>
+      </c>
+      <c r="O36">
+        <v>3.1755200000000001</v>
+      </c>
+      <c r="P36">
+        <v>-3.0025900000000001</v>
+      </c>
+      <c r="Q36">
+        <v>17439</v>
+      </c>
+      <c r="R36">
+        <v>3.0470700000000002</v>
+      </c>
+      <c r="S36">
+        <v>-3.0024999999999999</v>
+      </c>
+      <c r="T36">
+        <v>19599</v>
+      </c>
+      <c r="U36">
+        <v>2.9061300000000001</v>
+      </c>
+      <c r="V36">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="W36">
+        <v>21760</v>
+      </c>
+      <c r="X36">
+        <v>2.7367699999999999</v>
+      </c>
+      <c r="Y36">
+        <v>-3.0028199999999998</v>
+      </c>
+      <c r="Z36">
+        <v>23920</v>
+      </c>
+      <c r="AA36">
+        <v>2.52075</v>
+      </c>
+      <c r="AB36">
+        <v>-3.00265</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>6647</v>
+      </c>
+      <c r="C37">
+        <v>3.5816599999999998</v>
+      </c>
+      <c r="D37">
+        <v>-3.00291</v>
+      </c>
+      <c r="E37">
+        <v>8807</v>
+      </c>
+      <c r="F37">
+        <v>3.49634</v>
+      </c>
+      <c r="G37">
+        <v>-3.00299</v>
+      </c>
+      <c r="H37">
+        <v>10968</v>
+      </c>
+      <c r="I37">
+        <v>3.3814199999999999</v>
+      </c>
+      <c r="J37">
+        <v>-3.00285</v>
+      </c>
+      <c r="K37">
+        <v>13128</v>
+      </c>
+      <c r="L37">
+        <v>3.29359</v>
+      </c>
+      <c r="M37">
+        <v>-3.0026999999999999</v>
+      </c>
+      <c r="N37">
+        <v>15289</v>
+      </c>
+      <c r="O37">
+        <v>3.1717399999999998</v>
+      </c>
+      <c r="P37">
+        <v>-3.0028100000000002</v>
+      </c>
+      <c r="Q37">
+        <v>17449</v>
+      </c>
+      <c r="R37">
+        <v>3.0438299999999998</v>
+      </c>
+      <c r="S37">
+        <v>-3.00271</v>
+      </c>
+      <c r="T37">
+        <v>19609</v>
+      </c>
+      <c r="U37">
+        <v>2.9019200000000001</v>
+      </c>
+      <c r="V37">
+        <v>-3.0028299999999999</v>
+      </c>
+      <c r="W37">
+        <v>21770</v>
+      </c>
+      <c r="X37">
+        <v>2.73224</v>
+      </c>
+      <c r="Y37">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="Z37">
+        <v>23930</v>
+      </c>
+      <c r="AA37">
+        <v>2.51288</v>
+      </c>
+      <c r="AB37">
+        <v>-3.0026099999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>6657</v>
+      </c>
+      <c r="C38">
+        <v>3.5800399999999999</v>
+      </c>
+      <c r="D38">
+        <v>-3.0026700000000002</v>
+      </c>
+      <c r="E38">
+        <v>8817</v>
+      </c>
+      <c r="F38">
+        <v>3.49315</v>
+      </c>
+      <c r="G38">
+        <v>-3.0029400000000002</v>
+      </c>
+      <c r="H38">
+        <v>10978</v>
+      </c>
+      <c r="I38">
+        <v>3.3790100000000001</v>
+      </c>
+      <c r="J38">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="K38">
+        <v>13138</v>
+      </c>
+      <c r="L38">
+        <v>3.2910499999999998</v>
+      </c>
+      <c r="M38">
+        <v>-3.00265</v>
+      </c>
+      <c r="N38">
+        <v>15299</v>
+      </c>
+      <c r="O38">
+        <v>3.1680799999999998</v>
+      </c>
+      <c r="P38">
+        <v>-3.0026600000000001</v>
+      </c>
+      <c r="Q38">
+        <v>17459</v>
+      </c>
+      <c r="R38">
+        <v>3.0405000000000002</v>
+      </c>
+      <c r="S38">
+        <v>-3.0027200000000001</v>
+      </c>
+      <c r="T38">
+        <v>19619</v>
+      </c>
+      <c r="U38">
+        <v>2.8978899999999999</v>
+      </c>
+      <c r="V38">
+        <v>-3.0028800000000002</v>
+      </c>
+      <c r="W38">
+        <v>21780</v>
+      </c>
+      <c r="X38">
+        <v>2.7277999999999998</v>
+      </c>
+      <c r="Y38">
+        <v>-3.0024500000000001</v>
+      </c>
+      <c r="Z38">
+        <v>23940</v>
+      </c>
+      <c r="AA38">
+        <v>2.5049399999999999</v>
+      </c>
+      <c r="AB38">
+        <v>-3.0027300000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>6667</v>
+      </c>
+      <c r="C39">
+        <v>3.57843</v>
+      </c>
+      <c r="D39">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="E39">
+        <v>8827</v>
+      </c>
+      <c r="F39">
+        <v>3.4901800000000001</v>
+      </c>
+      <c r="G39">
+        <v>-3.0027699999999999</v>
+      </c>
+      <c r="H39">
+        <v>10988</v>
+      </c>
+      <c r="I39">
+        <v>3.37656</v>
+      </c>
+      <c r="J39">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="K39">
+        <v>13148</v>
+      </c>
+      <c r="L39">
+        <v>3.2886000000000002</v>
+      </c>
+      <c r="M39">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="N39">
+        <v>15309</v>
+      </c>
+      <c r="O39">
+        <v>3.1647500000000002</v>
+      </c>
+      <c r="P39">
+        <v>-3.0028600000000001</v>
+      </c>
+      <c r="Q39">
+        <v>17469</v>
+      </c>
+      <c r="R39">
+        <v>3.0373999999999999</v>
+      </c>
+      <c r="S39">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="T39">
+        <v>19629</v>
+      </c>
+      <c r="U39">
+        <v>2.8938299999999999</v>
+      </c>
+      <c r="V39">
+        <v>-3.0027499999999998</v>
+      </c>
+      <c r="W39">
+        <v>21790</v>
+      </c>
+      <c r="X39">
+        <v>2.72296</v>
+      </c>
+      <c r="Y39">
+        <v>-3.0026000000000002</v>
+      </c>
+      <c r="Z39">
+        <v>23942</v>
+      </c>
+      <c r="AA39">
+        <v>2.4997799999999999</v>
+      </c>
+      <c r="AB39">
+        <v>-3.0025400000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>6677</v>
+      </c>
+      <c r="C40">
+        <v>3.5769199999999999</v>
+      </c>
+      <c r="D40">
+        <v>-3.0028000000000001</v>
+      </c>
+      <c r="E40">
+        <v>8837</v>
+      </c>
+      <c r="F40">
+        <v>3.4868399999999999</v>
+      </c>
+      <c r="G40">
+        <v>-3.0026999999999999</v>
+      </c>
+      <c r="H40">
+        <v>10998</v>
+      </c>
+      <c r="I40">
+        <v>3.3741500000000002</v>
+      </c>
+      <c r="J40">
+        <v>-3.00258</v>
+      </c>
+      <c r="K40">
+        <v>13158</v>
+      </c>
+      <c r="L40">
+        <v>3.2859600000000002</v>
+      </c>
+      <c r="M40">
+        <v>-3.0029699999999999</v>
+      </c>
+      <c r="N40">
+        <v>15319</v>
+      </c>
+      <c r="O40">
+        <v>3.16106</v>
+      </c>
+      <c r="P40">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="Q40">
+        <v>17479</v>
+      </c>
+      <c r="R40">
+        <v>3.0339800000000001</v>
+      </c>
+      <c r="S40">
+        <v>-3.0026600000000001</v>
+      </c>
+      <c r="T40">
+        <v>19639</v>
+      </c>
+      <c r="U40">
+        <v>2.8895900000000001</v>
+      </c>
+      <c r="V40">
+        <v>-3.0027400000000002</v>
+      </c>
+      <c r="W40">
+        <v>21800</v>
+      </c>
+      <c r="X40">
+        <v>2.71868</v>
+      </c>
+      <c r="Y40">
+        <v>-3.0028899999999998</v>
+      </c>
+      <c r="Z40">
+        <v>23972</v>
+      </c>
+      <c r="AA40">
+        <v>3.0292300000000001</v>
+      </c>
+      <c r="AB40">
+        <v>-7.96665E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>6687</v>
+      </c>
+      <c r="C41">
+        <v>3.57552</v>
+      </c>
+      <c r="D41">
+        <v>-3.0027200000000001</v>
+      </c>
+      <c r="E41">
+        <v>8847</v>
+      </c>
+      <c r="F41">
+        <v>3.4834499999999999</v>
+      </c>
+      <c r="G41">
+        <v>-3.0026999999999999</v>
+      </c>
+      <c r="H41">
+        <v>11008</v>
+      </c>
+      <c r="I41">
+        <v>3.37175</v>
+      </c>
+      <c r="J41">
+        <v>-3.0027599999999999</v>
+      </c>
+      <c r="K41">
+        <v>13168</v>
+      </c>
+      <c r="L41">
+        <v>3.2832599999999998</v>
+      </c>
+      <c r="M41">
+        <v>-3.0028299999999999</v>
+      </c>
+      <c r="N41">
+        <v>15329</v>
+      </c>
+      <c r="O41">
+        <v>3.1573600000000002</v>
+      </c>
+      <c r="P41">
+        <v>-3.0027499999999998</v>
+      </c>
+      <c r="Q41">
+        <v>17489</v>
+      </c>
+      <c r="R41">
+        <v>3.03057</v>
+      </c>
+      <c r="S41">
+        <v>-3.0028600000000001</v>
+      </c>
+      <c r="T41">
+        <v>19649</v>
+      </c>
+      <c r="U41">
+        <v>2.8853499999999999</v>
+      </c>
+      <c r="V41">
+        <v>-3.0027300000000001</v>
+      </c>
+      <c r="W41">
+        <v>21810</v>
+      </c>
+      <c r="X41">
+        <v>2.714</v>
+      </c>
+      <c r="Y41">
+        <v>-3.0025900000000001</v>
+      </c>
+      <c r="Z41">
+        <v>24002</v>
+      </c>
+      <c r="AA41">
+        <v>3.0684499999999999</v>
+      </c>
+      <c r="AB41">
+        <v>-8.0216900000000004E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>6697</v>
+      </c>
+      <c r="C42">
+        <v>3.5727000000000002</v>
+      </c>
+      <c r="D42">
+        <v>-3.0026700000000002</v>
+      </c>
+      <c r="E42">
+        <v>8857</v>
+      </c>
+      <c r="F42">
+        <v>3.4786999999999999</v>
+      </c>
+      <c r="G42">
+        <v>-3.0024899999999999</v>
+      </c>
+      <c r="H42">
+        <v>11018</v>
+      </c>
+      <c r="I42">
+        <v>3.36849</v>
+      </c>
+      <c r="J42">
+        <v>-3.0028299999999999</v>
+      </c>
+      <c r="K42">
+        <v>13178</v>
+      </c>
+      <c r="L42">
+        <v>3.27928</v>
+      </c>
+      <c r="M42">
+        <v>-3.00264</v>
+      </c>
+      <c r="N42">
+        <v>15339</v>
+      </c>
+      <c r="O42">
+        <v>3.1520199999999998</v>
+      </c>
+      <c r="P42">
+        <v>-3.00291</v>
+      </c>
+      <c r="Q42">
+        <v>17499</v>
+      </c>
+      <c r="R42">
+        <v>3.0257900000000002</v>
+      </c>
+      <c r="S42">
+        <v>-3.0028899999999998</v>
+      </c>
+      <c r="T42">
+        <v>19659</v>
+      </c>
+      <c r="U42">
+        <v>2.8790800000000001</v>
+      </c>
+      <c r="V42">
+        <v>-3.0026899999999999</v>
+      </c>
+      <c r="W42">
+        <v>21820</v>
+      </c>
+      <c r="X42">
+        <v>2.7079399999999998</v>
+      </c>
+      <c r="Y42">
+        <v>-3.00278</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>6727</v>
+      </c>
+      <c r="C43">
+        <v>4.0565600000000002</v>
+      </c>
+      <c r="D43">
+        <v>-1.06106E-3</v>
+      </c>
+      <c r="E43">
+        <v>8888</v>
+      </c>
+      <c r="F43">
+        <v>3.9623499999999998</v>
+      </c>
+      <c r="G43">
+        <v>-1.03634E-3</v>
+      </c>
+      <c r="H43">
+        <v>11048</v>
+      </c>
+      <c r="I43">
+        <v>3.85202</v>
+      </c>
+      <c r="J43">
+        <v>-1.00741E-3</v>
+      </c>
+      <c r="K43">
+        <v>13208</v>
+      </c>
+      <c r="L43">
+        <v>3.7653799999999999</v>
+      </c>
+      <c r="M43">
+        <v>-9.8512199999999995E-4</v>
+      </c>
+      <c r="N43">
+        <v>15369</v>
+      </c>
+      <c r="O43">
+        <v>3.6394899999999999</v>
+      </c>
+      <c r="P43">
+        <v>-9.5220799999999996E-4</v>
+      </c>
+      <c r="Q43">
+        <v>17529</v>
+      </c>
+      <c r="R43">
+        <v>3.5146099999999998</v>
+      </c>
+      <c r="S43">
+        <v>-9.1989000000000003E-4</v>
+      </c>
+      <c r="T43">
+        <v>19689</v>
+      </c>
+      <c r="U43">
+        <v>3.3717600000000001</v>
+      </c>
+      <c r="V43">
+        <v>-8.8298999999999995E-4</v>
+      </c>
+      <c r="W43">
+        <v>21850</v>
+      </c>
+      <c r="X43">
+        <v>3.21251</v>
+      </c>
+      <c r="Y43">
+        <v>-8.42539E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>6757</v>
+      </c>
+      <c r="C44">
+        <v>4.07491</v>
+      </c>
+      <c r="D44">
+        <v>-1.06358E-3</v>
+      </c>
+      <c r="E44">
+        <v>8918</v>
+      </c>
+      <c r="F44">
+        <v>3.9798300000000002</v>
+      </c>
+      <c r="G44">
+        <v>-1.03875E-3</v>
+      </c>
+      <c r="H44">
+        <v>11078</v>
+      </c>
+      <c r="I44">
+        <v>3.8690600000000002</v>
+      </c>
+      <c r="J44">
+        <v>-1.0099E-3</v>
+      </c>
+      <c r="K44">
+        <v>13238</v>
+      </c>
+      <c r="L44">
+        <v>3.7839399999999999</v>
+      </c>
+      <c r="M44">
+        <v>-9.8777900000000004E-4</v>
+      </c>
+      <c r="N44">
+        <v>15399</v>
+      </c>
+      <c r="O44">
+        <v>3.6589299999999998</v>
+      </c>
+      <c r="P44">
+        <v>-9.5540700000000002E-4</v>
+      </c>
+      <c r="Q44">
+        <v>17559</v>
+      </c>
+      <c r="R44">
+        <v>3.5344699999999998</v>
+      </c>
+      <c r="S44">
+        <v>-9.2279099999999995E-4</v>
+      </c>
+      <c r="T44">
+        <v>19719</v>
+      </c>
+      <c r="U44">
+        <v>3.39377</v>
+      </c>
+      <c r="V44">
+        <v>-8.8616300000000003E-4</v>
+      </c>
+      <c r="W44">
+        <v>21880</v>
+      </c>
+      <c r="X44">
+        <v>3.2395800000000001</v>
+      </c>
+      <c r="Y44">
+        <v>-8.4622600000000005E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629C4ADA-8BEF-491F-9CD7-3B77D118322F}">
+  <dimension ref="B2:AS65"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3:AS6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.9</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="N3">
+        <v>0.7</v>
+      </c>
+      <c r="R3">
+        <v>0.6</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>0.4</v>
+      </c>
+      <c r="AD3">
+        <v>0.3</v>
+      </c>
+      <c r="AH3">
+        <v>0.2</v>
+      </c>
+      <c r="AL3">
+        <v>0.1</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B6">
         <v>5167</v>
       </c>
       <c r="C6">
         <v>4.2066600000000003</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>6727</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4.0565600000000002</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>8888</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>3.9623499999999998</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>11048</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>3.85202</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <v>13208</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>3.7653799999999999</v>
       </c>
-      <c r="Q6">
+      <c r="V6">
         <v>15369</v>
       </c>
-      <c r="R6">
+      <c r="W6">
         <v>3.6394899999999999</v>
       </c>
-      <c r="T6">
+      <c r="Z6">
         <v>17529</v>
       </c>
-      <c r="U6">
+      <c r="AA6">
         <v>3.5146099999999998</v>
       </c>
-      <c r="W6">
+      <c r="AD6">
         <v>19689</v>
       </c>
-      <c r="X6">
+      <c r="AE6">
         <v>3.3717600000000001</v>
       </c>
-      <c r="Z6">
+      <c r="AH6">
         <v>21850</v>
       </c>
-      <c r="AA6">
+      <c r="AI6">
         <v>3.21251</v>
       </c>
-      <c r="AC6">
+      <c r="AL6">
         <v>23972</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>3.0292300000000001</v>
       </c>
-      <c r="AF6">
+      <c r="AP6">
         <v>25798</v>
       </c>
-      <c r="AG6">
+      <c r="AQ6">
         <v>3.0064899999999999</v>
       </c>
-      <c r="AI6">
+      <c r="AS6">
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>5197</v>
       </c>
       <c r="C7">
         <v>4.2034000000000002</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6757</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4.07491</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>8918</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>3.9798300000000002</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>11078</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>3.8690600000000002</v>
       </c>
-      <c r="N7">
+      <c r="R7">
         <v>13238</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>3.7839399999999999</v>
       </c>
-      <c r="Q7">
+      <c r="V7">
         <v>15399</v>
       </c>
-      <c r="R7">
+      <c r="W7">
         <v>3.6589299999999998</v>
       </c>
-      <c r="T7">
+      <c r="Z7">
         <v>17559</v>
       </c>
-      <c r="U7">
+      <c r="AA7">
         <v>3.5344699999999998</v>
       </c>
-      <c r="W7">
+      <c r="AD7">
         <v>19719</v>
       </c>
-      <c r="X7">
+      <c r="AE7">
         <v>3.39377</v>
       </c>
-      <c r="Z7">
+      <c r="AH7">
         <v>21880</v>
       </c>
-      <c r="AA7">
+      <c r="AI7">
         <v>3.2395800000000001</v>
       </c>
-      <c r="AC7">
+      <c r="AL7">
         <v>24002</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>3.0684499999999999</v>
       </c>
-      <c r="AF7">
+      <c r="AP7">
         <v>25828</v>
       </c>
-      <c r="AG7">
+      <c r="AQ7">
         <v>3.03356</v>
       </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>5227</v>
       </c>
       <c r="C8">
         <v>4.2014800000000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6787</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4.08155</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>8948</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>3.9855800000000001</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>11108</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>3.8751600000000002</v>
       </c>
-      <c r="N8">
+      <c r="R8">
         <v>13268</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>3.7909199999999998</v>
       </c>
-      <c r="Q8">
+      <c r="V8">
         <v>15429</v>
       </c>
-      <c r="R8">
+      <c r="W8">
         <v>3.66723</v>
       </c>
-      <c r="T8">
+      <c r="Z8">
         <v>17589</v>
       </c>
-      <c r="U8">
+      <c r="AA8">
         <v>3.54135</v>
       </c>
-      <c r="W8">
+      <c r="AD8">
         <v>19749</v>
       </c>
-      <c r="X8">
+      <c r="AE8">
         <v>3.4016600000000001</v>
       </c>
-      <c r="Z8">
+      <c r="AH8">
         <v>21910</v>
       </c>
-      <c r="AA8">
+      <c r="AI8">
         <v>3.2490999999999999</v>
       </c>
-      <c r="AC8">
+      <c r="AL8">
         <v>24032</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>3.08142</v>
       </c>
-      <c r="AF8">
+      <c r="AP8">
         <v>25858</v>
       </c>
-      <c r="AG8">
+      <c r="AQ8">
         <v>3.0440499999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5257</v>
       </c>
       <c r="C9">
         <v>4.1999000000000004</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>6817</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4.0846999999999998</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>8978</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>3.9886400000000002</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>11138</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>3.8778999999999999</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>13298</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>3.7947199999999999</v>
       </c>
-      <c r="Q9">
+      <c r="V9">
         <v>15459</v>
       </c>
-      <c r="R9">
+      <c r="W9">
         <v>3.6720700000000002</v>
       </c>
-      <c r="T9">
+      <c r="Z9">
         <v>17619</v>
       </c>
-      <c r="U9">
+      <c r="AA9">
         <v>3.5444900000000001</v>
       </c>
-      <c r="W9">
+      <c r="AD9">
         <v>19779</v>
       </c>
-      <c r="X9">
+      <c r="AE9">
         <v>3.4059200000000001</v>
       </c>
-      <c r="Z9">
+      <c r="AH9">
         <v>21940</v>
       </c>
-      <c r="AA9">
+      <c r="AI9">
         <v>3.2538900000000002</v>
       </c>
-      <c r="AC9">
+      <c r="AL9">
         <v>24062</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>3.08846</v>
       </c>
-      <c r="AF9">
+      <c r="AP9">
         <v>25888</v>
       </c>
-      <c r="AG9">
+      <c r="AQ9">
         <v>3.05023</v>
       </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>5287</v>
       </c>
       <c r="C10">
         <v>4.1988700000000003</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6847</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.0864700000000003</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>9008</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>3.99072</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>11168</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>3.87967</v>
       </c>
-      <c r="N10">
+      <c r="R10">
         <v>13328</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>3.7971300000000001</v>
       </c>
-      <c r="Q10">
+      <c r="V10">
         <v>15489</v>
       </c>
-      <c r="R10">
+      <c r="W10">
         <v>3.6753399999999998</v>
       </c>
-      <c r="T10">
+      <c r="Z10">
         <v>17649</v>
       </c>
-      <c r="U10">
+      <c r="AA10">
         <v>3.5461999999999998</v>
       </c>
-      <c r="W10">
+      <c r="AD10">
         <v>19809</v>
       </c>
-      <c r="X10">
+      <c r="AE10">
         <v>3.40862</v>
       </c>
-      <c r="Z10">
+      <c r="AH10">
         <v>21970</v>
       </c>
-      <c r="AA10">
+      <c r="AI10">
         <v>3.25718</v>
       </c>
-      <c r="AC10">
+      <c r="AL10">
         <v>24092</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>3.0931299999999999</v>
       </c>
-      <c r="AF10">
+      <c r="AP10">
         <v>25918</v>
       </c>
-      <c r="AG10">
+      <c r="AQ10">
         <v>3.0546099999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>5317</v>
       </c>
       <c r="C11">
         <v>4.1978999999999997</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>6877</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4.0875500000000002</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>9038</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>3.9923999999999999</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>11198</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>3.8808199999999999</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>13358</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>3.7987299999999999</v>
       </c>
-      <c r="Q11">
+      <c r="V11">
         <v>15519</v>
       </c>
-      <c r="R11">
+      <c r="W11">
         <v>3.6776200000000001</v>
       </c>
-      <c r="T11">
+      <c r="Z11">
         <v>17679</v>
       </c>
-      <c r="U11">
+      <c r="AA11">
         <v>3.5472700000000001</v>
       </c>
-      <c r="W11">
+      <c r="AD11">
         <v>19839</v>
       </c>
-      <c r="X11">
+      <c r="AE11">
         <v>3.4104399999999999</v>
       </c>
-      <c r="Z11">
+      <c r="AH11">
         <v>22000</v>
       </c>
-      <c r="AA11">
+      <c r="AI11">
         <v>3.25943</v>
       </c>
-      <c r="AC11">
+      <c r="AL11">
         <v>24122</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>3.0965199999999999</v>
       </c>
-      <c r="AF11">
+      <c r="AP11">
         <v>25949</v>
       </c>
-      <c r="AG11">
+      <c r="AQ11">
         <v>3.0579000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>5347</v>
       </c>
       <c r="C12">
         <v>4.1970499999999999</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>6907</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4.0881699999999999</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>9068</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>3.9939100000000001</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>11228</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>3.88164</v>
       </c>
-      <c r="N12">
+      <c r="R12">
         <v>13388</v>
       </c>
-      <c r="O12">
+      <c r="S12">
         <v>3.7999499999999999</v>
       </c>
-      <c r="Q12">
+      <c r="V12">
         <v>15549</v>
       </c>
-      <c r="R12">
+      <c r="W12">
         <v>3.67936</v>
       </c>
-      <c r="T12">
+      <c r="Z12">
         <v>17709</v>
       </c>
-      <c r="U12">
+      <c r="AA12">
         <v>3.5480800000000001</v>
       </c>
-      <c r="W12">
+      <c r="AD12">
         <v>19869</v>
       </c>
-      <c r="X12">
+      <c r="AE12">
         <v>3.4119000000000002</v>
       </c>
-      <c r="Z12">
+      <c r="AH12">
         <v>22030</v>
       </c>
-      <c r="AA12">
+      <c r="AI12">
         <v>3.2612399999999999</v>
       </c>
-      <c r="AC12">
+      <c r="AL12">
         <v>24152</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>3.0991900000000001</v>
       </c>
-      <c r="AF12">
+      <c r="AP12">
         <v>25979</v>
       </c>
-      <c r="AG12">
+      <c r="AQ12">
         <v>3.0606399999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>5377</v>
       </c>
       <c r="C13">
         <v>4.1963999999999997</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6937</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4.0886800000000001</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>9098</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>3.9954700000000001</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>11258</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>3.8823599999999998</v>
       </c>
-      <c r="N13">
+      <c r="R13">
         <v>13418</v>
       </c>
-      <c r="O13">
+      <c r="S13">
         <v>3.8009300000000001</v>
       </c>
-      <c r="Q13">
+      <c r="V13">
         <v>15579</v>
       </c>
-      <c r="R13">
+      <c r="W13">
         <v>3.6807099999999999</v>
       </c>
-      <c r="T13">
+      <c r="Z13">
         <v>17739</v>
       </c>
-      <c r="U13">
+      <c r="AA13">
         <v>3.54853</v>
       </c>
-      <c r="W13">
+      <c r="AD13">
         <v>19899</v>
       </c>
-      <c r="X13">
+      <c r="AE13">
         <v>3.4129499999999999</v>
       </c>
-      <c r="Z13">
+      <c r="AH13">
         <v>22060</v>
       </c>
-      <c r="AA13">
+      <c r="AI13">
         <v>3.2626200000000001</v>
       </c>
-      <c r="AC13">
+      <c r="AL13">
         <v>24182</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>3.1013999999999999</v>
       </c>
-      <c r="AF13">
+      <c r="AP13">
         <v>26009</v>
       </c>
-      <c r="AG13">
+      <c r="AQ13">
         <v>3.0628199999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>5407</v>
       </c>
       <c r="C14">
         <v>4.1956699999999998</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6967</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.0890399999999998</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>9128</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>3.99688</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>11288</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>3.8829400000000001</v>
       </c>
-      <c r="N14">
+      <c r="R14">
         <v>13448</v>
       </c>
-      <c r="O14">
+      <c r="S14">
         <v>3.80159</v>
       </c>
-      <c r="Q14">
+      <c r="V14">
         <v>15609</v>
       </c>
-      <c r="R14">
+      <c r="W14">
         <v>3.6817099999999998</v>
       </c>
-      <c r="T14">
+      <c r="Z14">
         <v>17769</v>
       </c>
-      <c r="U14">
+      <c r="AA14">
         <v>3.54895</v>
       </c>
-      <c r="W14">
+      <c r="AD14">
         <v>19929</v>
       </c>
-      <c r="X14">
+      <c r="AE14">
         <v>3.4139300000000001</v>
       </c>
-      <c r="Z14">
+      <c r="AH14">
         <v>22090</v>
       </c>
-      <c r="AA14">
+      <c r="AI14">
         <v>3.2637299999999998</v>
       </c>
-      <c r="AC14">
+      <c r="AL14">
         <v>24212</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>3.1032000000000002</v>
       </c>
-      <c r="AF14">
+      <c r="AP14">
         <v>26039</v>
       </c>
-      <c r="AG14">
+      <c r="AQ14">
         <v>3.0647899999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>5437</v>
       </c>
       <c r="C15">
         <v>4.1950599999999998</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>6997</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4.08927</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>9158</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>3.9983</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>11318</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>3.8834399999999998</v>
       </c>
-      <c r="N15">
+      <c r="R15">
         <v>13478</v>
       </c>
-      <c r="O15">
+      <c r="S15">
         <v>3.8021199999999999</v>
       </c>
-      <c r="Q15">
+      <c r="V15">
         <v>15639</v>
       </c>
-      <c r="R15">
+      <c r="W15">
         <v>3.6825899999999998</v>
       </c>
-      <c r="T15">
+      <c r="Z15">
         <v>17799</v>
       </c>
-      <c r="U15">
+      <c r="AA15">
         <v>3.5492599999999999</v>
       </c>
-      <c r="W15">
+      <c r="AD15">
         <v>19959</v>
       </c>
-      <c r="X15">
+      <c r="AE15">
         <v>3.41479</v>
       </c>
-      <c r="Z15">
+      <c r="AH15">
         <v>22120</v>
       </c>
-      <c r="AA15">
+      <c r="AI15">
         <v>3.2647400000000002</v>
       </c>
-      <c r="AC15">
+      <c r="AL15">
         <v>24242</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>3.1048</v>
       </c>
-      <c r="AF15">
+      <c r="AP15">
         <v>26069</v>
       </c>
-      <c r="AG15">
+      <c r="AQ15">
         <v>3.06656</v>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>5467</v>
       </c>
       <c r="C16">
         <v>4.1944900000000001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>7027</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4.0895400000000004</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>9188</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>3.9994800000000001</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>11348</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>3.8837600000000001</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <v>13508</v>
       </c>
-      <c r="O16">
+      <c r="S16">
         <v>3.80246</v>
       </c>
-      <c r="Q16">
+      <c r="V16">
         <v>15669</v>
       </c>
-      <c r="R16">
+      <c r="W16">
         <v>3.6833300000000002</v>
       </c>
-      <c r="T16">
+      <c r="Z16">
         <v>17829</v>
       </c>
-      <c r="U16">
+      <c r="AA16">
         <v>3.54956</v>
       </c>
-      <c r="W16">
+      <c r="AD16">
         <v>19989</v>
       </c>
-      <c r="X16">
+      <c r="AE16">
         <v>3.4155000000000002</v>
       </c>
-      <c r="Z16">
+      <c r="AH16">
         <v>22150</v>
       </c>
-      <c r="AA16">
+      <c r="AI16">
         <v>3.26559</v>
       </c>
-      <c r="AC16">
+      <c r="AL16">
         <v>24272</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>3.1061100000000001</v>
       </c>
-      <c r="AF16">
+      <c r="AP16">
         <v>26099</v>
       </c>
-      <c r="AG16">
+      <c r="AQ16">
         <v>3.0679500000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>5497</v>
       </c>
       <c r="C17">
         <v>4.194</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>7057</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4.0897199999999998</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>9218</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>4.0007099999999998</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>11378</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>3.88409</v>
       </c>
-      <c r="N17">
+      <c r="R17">
         <v>13538</v>
       </c>
-      <c r="O17">
+      <c r="S17">
         <v>3.8028599999999999</v>
       </c>
-      <c r="Q17">
+      <c r="V17">
         <v>15699</v>
       </c>
-      <c r="R17">
+      <c r="W17">
         <v>3.6839</v>
       </c>
-      <c r="T17">
+      <c r="Z17">
         <v>17859</v>
       </c>
-      <c r="U17">
+      <c r="AA17">
         <v>3.5497899999999998</v>
       </c>
-      <c r="W17">
+      <c r="AD17">
         <v>20019</v>
       </c>
-      <c r="X17">
+      <c r="AE17">
         <v>3.4161600000000001</v>
       </c>
-      <c r="Z17">
+      <c r="AH17">
         <v>22180</v>
       </c>
-      <c r="AA17">
+      <c r="AI17">
         <v>3.2663799999999998</v>
       </c>
-      <c r="AC17">
+      <c r="AL17">
         <v>24302</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>3.1073200000000001</v>
       </c>
-      <c r="AF17">
+      <c r="AP17">
         <v>26129</v>
       </c>
-      <c r="AG17">
+      <c r="AQ17">
         <v>3.0693800000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>5527</v>
       </c>
       <c r="C18">
         <v>4.19353</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7087</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4.0898399999999997</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>9248</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>4.0018599999999998</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>11408</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>3.88436</v>
       </c>
-      <c r="N18">
+      <c r="R18">
         <v>13568</v>
       </c>
-      <c r="O18">
+      <c r="S18">
         <v>3.8032400000000002</v>
       </c>
-      <c r="Q18">
+      <c r="V18">
         <v>15729</v>
       </c>
-      <c r="R18">
+      <c r="W18">
         <v>3.6844299999999999</v>
       </c>
-      <c r="T18">
+      <c r="Z18">
         <v>17889</v>
       </c>
-      <c r="U18">
+      <c r="AA18">
         <v>3.5500099999999999</v>
       </c>
-      <c r="W18">
+      <c r="AD18">
         <v>20049</v>
       </c>
-      <c r="X18">
+      <c r="AE18">
         <v>3.4166799999999999</v>
       </c>
-      <c r="Z18">
+      <c r="AH18">
         <v>22210</v>
       </c>
-      <c r="AA18">
+      <c r="AI18">
         <v>3.26701</v>
       </c>
-      <c r="AC18">
+      <c r="AL18">
         <v>24332</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>3.10833</v>
       </c>
-      <c r="AF18">
+      <c r="AP18">
         <v>26159</v>
       </c>
-      <c r="AG18">
+      <c r="AQ18">
         <v>3.07063</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>5557</v>
       </c>
       <c r="C19">
         <v>4.19313</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>7117</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4.0899900000000002</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>9278</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>4.0027299999999997</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>11438</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>3.8846099999999999</v>
       </c>
-      <c r="N19">
+      <c r="R19">
         <v>13598</v>
       </c>
-      <c r="O19">
+      <c r="S19">
         <v>3.8035299999999999</v>
       </c>
-      <c r="Q19">
+      <c r="V19">
         <v>15759</v>
       </c>
-      <c r="R19">
+      <c r="W19">
         <v>3.6848000000000001</v>
       </c>
-      <c r="T19">
+      <c r="Z19">
         <v>17919</v>
       </c>
-      <c r="U19">
+      <c r="AA19">
         <v>3.5501999999999998</v>
       </c>
-      <c r="W19">
+      <c r="AD19">
         <v>20079</v>
       </c>
-      <c r="X19">
+      <c r="AE19">
         <v>3.41717</v>
       </c>
-      <c r="Z19">
+      <c r="AH19">
         <v>22240</v>
       </c>
-      <c r="AA19">
+      <c r="AI19">
         <v>3.2676099999999999</v>
       </c>
-      <c r="AC19">
+      <c r="AL19">
         <v>24362</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>3.1092599999999999</v>
       </c>
-      <c r="AF19">
+      <c r="AP19">
         <v>26189</v>
       </c>
-      <c r="AG19">
+      <c r="AQ19">
         <v>3.0716000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>5587</v>
       </c>
       <c r="C20">
         <v>4.1927300000000001</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>7147</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4.0900100000000004</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>9308</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>4.00359</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>11468</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>3.8848600000000002</v>
       </c>
-      <c r="N20">
+      <c r="R20">
         <v>13628</v>
       </c>
-      <c r="O20">
+      <c r="S20">
         <v>3.8037000000000001</v>
       </c>
-      <c r="Q20">
+      <c r="V20">
         <v>15789</v>
       </c>
-      <c r="R20">
+      <c r="W20">
         <v>3.68527</v>
       </c>
-      <c r="T20">
+      <c r="Z20">
         <v>17949</v>
       </c>
-      <c r="U20">
+      <c r="AA20">
         <v>3.5504099999999998</v>
       </c>
-      <c r="W20">
+      <c r="AD20">
         <v>20109</v>
       </c>
-      <c r="X20">
+      <c r="AE20">
         <v>3.4176600000000001</v>
       </c>
-      <c r="Z20">
+      <c r="AH20">
         <v>22270</v>
       </c>
-      <c r="AA20">
+      <c r="AI20">
         <v>3.2682000000000002</v>
       </c>
-      <c r="AC20">
+      <c r="AL20">
         <v>24392</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>3.1101100000000002</v>
       </c>
-      <c r="AF20">
+      <c r="AP20">
         <v>26219</v>
       </c>
-      <c r="AG20">
+      <c r="AQ20">
         <v>3.0726499999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>5617</v>
       </c>
       <c r="C21">
         <v>4.1923399999999997</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>7177</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4.0901500000000004</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>9338</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>4.0043600000000001</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>11498</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>3.8849900000000002</v>
       </c>
-      <c r="N21">
+      <c r="R21">
         <v>13658</v>
       </c>
-      <c r="O21">
+      <c r="S21">
         <v>3.8039100000000001</v>
       </c>
-      <c r="Q21">
+      <c r="V21">
         <v>15819</v>
       </c>
-      <c r="R21">
+      <c r="W21">
         <v>3.68553</v>
       </c>
-      <c r="T21">
+      <c r="Z21">
         <v>17979</v>
       </c>
-      <c r="U21">
+      <c r="AA21">
         <v>3.55044</v>
       </c>
-      <c r="W21">
+      <c r="AD21">
         <v>20139</v>
       </c>
-      <c r="X21">
+      <c r="AE21">
         <v>3.41797</v>
       </c>
-      <c r="Z21">
+      <c r="AH21">
         <v>22300</v>
       </c>
-      <c r="AA21">
+      <c r="AI21">
         <v>3.26864</v>
       </c>
-      <c r="AC21">
+      <c r="AL21">
         <v>24422</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>3.1109499999999999</v>
       </c>
-      <c r="AF21">
+      <c r="AP21">
         <v>26249</v>
       </c>
-      <c r="AG21">
+      <c r="AQ21">
         <v>3.07362</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>5647</v>
       </c>
       <c r="C22">
         <v>4.1920200000000003</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>7207</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4.09016</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>9368</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>4.0048899999999996</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>11528</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>3.8852000000000002</v>
       </c>
-      <c r="N22">
+      <c r="R22">
         <v>13688</v>
       </c>
-      <c r="O22">
+      <c r="S22">
         <v>3.8040799999999999</v>
       </c>
-      <c r="Q22">
+      <c r="V22">
         <v>15849</v>
       </c>
-      <c r="R22">
+      <c r="W22">
         <v>3.6859199999999999</v>
       </c>
-      <c r="T22">
+      <c r="Z22">
         <v>18009</v>
       </c>
-      <c r="U22">
+      <c r="AA22">
         <v>3.5506199999999999</v>
       </c>
-      <c r="W22">
+      <c r="AD22">
         <v>20169</v>
       </c>
-      <c r="X22">
+      <c r="AE22">
         <v>3.41839</v>
       </c>
-      <c r="Z22">
+      <c r="AH22">
         <v>22330</v>
       </c>
-      <c r="AA22">
+      <c r="AI22">
         <v>3.2690600000000001</v>
       </c>
-      <c r="AC22">
+      <c r="AL22">
         <v>24452</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>3.1116299999999999</v>
       </c>
-      <c r="AF22">
+      <c r="AP22">
         <v>26279</v>
       </c>
-      <c r="AG22">
+      <c r="AQ22">
         <v>3.0745300000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>5677</v>
       </c>
       <c r="C23">
         <v>4.1916500000000001</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>7237</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4.0902900000000004</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>9398</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>4.0053700000000001</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>11558</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>3.8852799999999998</v>
       </c>
-      <c r="N23">
+      <c r="R23">
         <v>13718</v>
       </c>
-      <c r="O23">
+      <c r="S23">
         <v>3.8041299999999998</v>
       </c>
-      <c r="Q23">
+      <c r="V23">
         <v>15879</v>
       </c>
-      <c r="R23">
+      <c r="W23">
         <v>3.6860499999999998</v>
       </c>
-      <c r="T23">
+      <c r="Z23">
         <v>18039</v>
       </c>
-      <c r="U23">
+      <c r="AA23">
         <v>3.5506700000000002</v>
       </c>
-      <c r="W23">
+      <c r="AD23">
         <v>20200</v>
       </c>
-      <c r="X23">
+      <c r="AE23">
         <v>3.4187099999999999</v>
       </c>
-      <c r="Z23">
+      <c r="AH23">
         <v>22360</v>
       </c>
-      <c r="AA23">
+      <c r="AI23">
         <v>3.2695500000000002</v>
       </c>
-      <c r="AC23">
+      <c r="AL23">
         <v>24482</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>3.11239</v>
       </c>
-      <c r="AF23">
+      <c r="AP23">
         <v>26309</v>
       </c>
-      <c r="AG23">
+      <c r="AQ23">
         <v>3.0753699999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>5707</v>
       </c>
       <c r="C24">
         <v>4.1914199999999999</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>7267</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4.0903200000000002</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>9428</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>4.0058400000000001</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>11588</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>3.8854099999999998</v>
       </c>
-      <c r="N24">
+      <c r="R24">
         <v>13748</v>
       </c>
-      <c r="O24">
+      <c r="S24">
         <v>3.8043300000000002</v>
       </c>
-      <c r="Q24">
+      <c r="V24">
         <v>15909</v>
       </c>
-      <c r="R24">
+      <c r="W24">
         <v>3.6862499999999998</v>
       </c>
-      <c r="T24">
+      <c r="Z24">
         <v>18069</v>
       </c>
-      <c r="U24">
+      <c r="AA24">
         <v>3.5508999999999999</v>
       </c>
-      <c r="W24">
+      <c r="AD24">
         <v>20230</v>
       </c>
-      <c r="X24">
+      <c r="AE24">
         <v>3.4190200000000002</v>
       </c>
-      <c r="Z24">
+      <c r="AH24">
         <v>22390</v>
       </c>
-      <c r="AA24">
+      <c r="AI24">
         <v>3.2699400000000001</v>
       </c>
-      <c r="AC24">
+      <c r="AL24">
         <v>24512</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>3.1130900000000001</v>
       </c>
-      <c r="AF24">
+      <c r="AP24">
         <v>26339</v>
       </c>
-      <c r="AG24">
+      <c r="AQ24">
         <v>3.07612</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>5737</v>
       </c>
       <c r="C25">
         <v>4.19116</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>7297</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4.0903400000000003</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>9458</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>4.0062699999999998</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>11618</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>3.8854799999999998</v>
       </c>
-      <c r="N25">
+      <c r="R25">
         <v>13778</v>
       </c>
-      <c r="O25">
+      <c r="S25">
         <v>3.8044500000000001</v>
       </c>
-      <c r="Q25">
+      <c r="V25">
         <v>15939</v>
       </c>
-      <c r="R25">
+      <c r="W25">
         <v>3.68649</v>
       </c>
-      <c r="T25">
+      <c r="Z25">
         <v>18099</v>
       </c>
-      <c r="U25">
+      <c r="AA25">
         <v>3.5509400000000002</v>
       </c>
-      <c r="W25">
+      <c r="AD25">
         <v>20260</v>
       </c>
-      <c r="X25">
+      <c r="AE25">
         <v>3.41933</v>
       </c>
-      <c r="Z25">
+      <c r="AH25">
         <v>22420</v>
       </c>
-      <c r="AA25">
+      <c r="AI25">
         <v>3.2702300000000002</v>
       </c>
-      <c r="AC25">
+      <c r="AL25">
         <v>24542</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>3.1136300000000001</v>
       </c>
-      <c r="AF25">
+      <c r="AP25">
         <v>26369</v>
       </c>
-      <c r="AG25">
+      <c r="AQ25">
         <v>3.0768800000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>5767</v>
       </c>
       <c r="C26">
         <v>4.1908799999999999</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>7327</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4.0903900000000002</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>9488</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>4.0064799999999998</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>11648</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>3.88551</v>
       </c>
-      <c r="N26">
+      <c r="R26">
         <v>13808</v>
       </c>
-      <c r="O26">
+      <c r="S26">
         <v>3.8045800000000001</v>
       </c>
-      <c r="Q26">
+      <c r="V26">
         <v>15969</v>
       </c>
-      <c r="R26">
+      <c r="W26">
         <v>3.6867100000000002</v>
       </c>
-      <c r="T26">
+      <c r="Z26">
         <v>18129</v>
       </c>
-      <c r="U26">
+      <c r="AA26">
         <v>3.55111</v>
       </c>
-      <c r="W26">
+      <c r="AD26">
         <v>20290</v>
       </c>
-      <c r="X26">
+      <c r="AE26">
         <v>3.4196300000000002</v>
       </c>
-      <c r="Z26">
+      <c r="AH26">
         <v>22450</v>
       </c>
-      <c r="AA26">
+      <c r="AI26">
         <v>3.2706300000000001</v>
       </c>
-      <c r="AC26">
+      <c r="AL26">
         <v>24572</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>3.1141700000000001</v>
       </c>
-      <c r="AF26">
+      <c r="AP26">
         <v>26399</v>
       </c>
-      <c r="AG26">
+      <c r="AQ26">
         <v>3.0775100000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>5797</v>
       </c>
       <c r="C27">
         <v>4.1905599999999996</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>7357</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4.0904699999999998</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>9518</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>4.0067199999999996</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>11678</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>3.88564</v>
       </c>
-      <c r="N27">
+      <c r="R27">
         <v>13838</v>
       </c>
-      <c r="O27">
+      <c r="S27">
         <v>3.8046700000000002</v>
       </c>
-      <c r="Q27">
+      <c r="V27">
         <v>15999</v>
       </c>
-      <c r="R27">
+      <c r="W27">
         <v>3.6869200000000002</v>
       </c>
-      <c r="T27">
+      <c r="Z27">
         <v>18159</v>
       </c>
-      <c r="U27">
+      <c r="AA27">
         <v>3.5512100000000002</v>
       </c>
-      <c r="W27">
+      <c r="AD27">
         <v>20320</v>
       </c>
-      <c r="X27">
+      <c r="AE27">
         <v>3.41987</v>
       </c>
-      <c r="Z27">
+      <c r="AH27">
         <v>22480</v>
       </c>
-      <c r="AA27">
+      <c r="AI27">
         <v>3.27095</v>
       </c>
-      <c r="AC27">
+      <c r="AL27">
         <v>24602</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>3.1147100000000001</v>
       </c>
-      <c r="AF27">
+      <c r="AP27">
         <v>26429</v>
       </c>
-      <c r="AG27">
+      <c r="AQ27">
         <v>3.0781000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>5827</v>
       </c>
       <c r="C28">
         <v>4.1903499999999996</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>7387</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4.0903799999999997</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>9548</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>4.0069100000000004</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>11708</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>3.8857200000000001</v>
       </c>
-      <c r="N28">
+      <c r="R28">
         <v>13868</v>
       </c>
-      <c r="O28">
+      <c r="S28">
         <v>3.8048000000000002</v>
       </c>
-      <c r="Q28">
+      <c r="V28">
         <v>16029</v>
       </c>
-      <c r="R28">
+      <c r="W28">
         <v>3.6869700000000001</v>
       </c>
-      <c r="T28">
+      <c r="Z28">
         <v>18189</v>
       </c>
-      <c r="U28">
+      <c r="AA28">
         <v>3.5512600000000001</v>
       </c>
-      <c r="W28">
+      <c r="AD28">
         <v>20350</v>
       </c>
-      <c r="X28">
+      <c r="AE28">
         <v>3.42022</v>
       </c>
-      <c r="Z28">
+      <c r="AH28">
         <v>22510</v>
       </c>
-      <c r="AA28">
+      <c r="AI28">
         <v>3.27135</v>
       </c>
-      <c r="AC28">
+      <c r="AL28">
         <v>24632</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>3.11517</v>
       </c>
-      <c r="AF28">
+      <c r="AP28">
         <v>26459</v>
       </c>
-      <c r="AG28">
+      <c r="AQ28">
         <v>3.0788600000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>5857</v>
       </c>
       <c r="C29">
         <v>4.1901200000000003</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>7417</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>4.0904100000000003</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>9578</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>4.0071000000000003</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>11738</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>3.88584</v>
       </c>
-      <c r="N29">
+      <c r="R29">
         <v>13898</v>
       </c>
-      <c r="O29">
+      <c r="S29">
         <v>3.8048700000000002</v>
       </c>
-      <c r="Q29">
+      <c r="V29">
         <v>16059</v>
       </c>
-      <c r="R29">
+      <c r="W29">
         <v>3.6871</v>
       </c>
-      <c r="T29">
+      <c r="Z29">
         <v>18219</v>
       </c>
-      <c r="U29">
+      <c r="AA29">
         <v>3.5513499999999998</v>
       </c>
-      <c r="W29">
+      <c r="AD29">
         <v>20380</v>
       </c>
-      <c r="X29">
+      <c r="AE29">
         <v>3.4203199999999998</v>
       </c>
-      <c r="Z29">
+      <c r="AH29">
         <v>22540</v>
       </c>
-      <c r="AA29">
+      <c r="AI29">
         <v>3.2715299999999998</v>
       </c>
-      <c r="AC29">
+      <c r="AL29">
         <v>24662</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>3.1156100000000002</v>
       </c>
-      <c r="AF29">
+      <c r="AP29">
         <v>26489</v>
       </c>
-      <c r="AG29">
+      <c r="AQ29">
         <v>3.0793400000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>5887</v>
       </c>
       <c r="C30">
         <v>4.1899100000000002</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>7447</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4.0905399999999998</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>9608</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>4.0072700000000001</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>11768</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>3.8858299999999999</v>
       </c>
-      <c r="N30">
+      <c r="R30">
         <v>13928</v>
       </c>
-      <c r="O30">
+      <c r="S30">
         <v>3.80497</v>
       </c>
-      <c r="Q30">
+      <c r="V30">
         <v>16089</v>
       </c>
-      <c r="R30">
+      <c r="W30">
         <v>3.6871399999999999</v>
       </c>
-      <c r="T30">
+      <c r="Z30">
         <v>18249</v>
       </c>
-      <c r="U30">
+      <c r="AA30">
         <v>3.55139</v>
       </c>
-      <c r="W30">
+      <c r="AD30">
         <v>20410</v>
       </c>
-      <c r="X30">
+      <c r="AE30">
         <v>3.4205199999999998</v>
       </c>
-      <c r="Z30">
+      <c r="AH30">
         <v>22570</v>
       </c>
-      <c r="AA30">
+      <c r="AI30">
         <v>3.2717800000000001</v>
       </c>
-      <c r="AC30">
+      <c r="AL30">
         <v>24692</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>3.11619</v>
       </c>
-      <c r="AF30">
+      <c r="AP30">
         <v>26519</v>
       </c>
-      <c r="AG30">
+      <c r="AQ30">
         <v>3.07992</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>5917</v>
       </c>
       <c r="C31">
         <v>4.1896800000000001</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>7477</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>4.0904800000000003</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>9638</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>4.0073499999999997</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>11798</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>3.8860100000000002</v>
       </c>
-      <c r="N31">
+      <c r="R31">
         <v>13958</v>
       </c>
-      <c r="O31">
+      <c r="S31">
         <v>3.80497</v>
       </c>
-      <c r="Q31">
+      <c r="V31">
         <v>16119</v>
       </c>
-      <c r="R31">
+      <c r="W31">
         <v>3.68736</v>
       </c>
-      <c r="T31">
+      <c r="Z31">
         <v>18279</v>
       </c>
-      <c r="U31">
+      <c r="AA31">
         <v>3.5515099999999999</v>
       </c>
-      <c r="W31">
+      <c r="AD31">
         <v>20440</v>
       </c>
-      <c r="X31">
+      <c r="AE31">
         <v>3.42075</v>
       </c>
-      <c r="Z31">
+      <c r="AH31">
         <v>22600</v>
       </c>
-      <c r="AA31">
+      <c r="AI31">
         <v>3.2721800000000001</v>
       </c>
-      <c r="AC31">
+      <c r="AL31">
         <v>24722</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>3.1165400000000001</v>
       </c>
-      <c r="AF31">
+      <c r="AP31">
         <v>26549</v>
       </c>
-      <c r="AG31">
+      <c r="AQ31">
         <v>3.0804200000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>5947</v>
       </c>
       <c r="C32">
         <v>4.18954</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>7507</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4.0905899999999997</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>9668</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>4.00753</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>11828</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>3.8860299999999999</v>
       </c>
-      <c r="N32">
+      <c r="R32">
         <v>13988</v>
       </c>
-      <c r="O32">
+      <c r="S32">
         <v>3.8050899999999999</v>
       </c>
-      <c r="Q32">
+      <c r="V32">
         <v>16149</v>
       </c>
-      <c r="R32">
+      <c r="W32">
         <v>3.6875399999999998</v>
       </c>
-      <c r="T32">
+      <c r="Z32">
         <v>18309</v>
       </c>
-      <c r="U32">
+      <c r="AA32">
         <v>3.55159</v>
       </c>
-      <c r="W32">
+      <c r="AD32">
         <v>20470</v>
       </c>
-      <c r="X32">
+      <c r="AE32">
         <v>3.4210600000000002</v>
       </c>
-      <c r="Z32">
+      <c r="AH32">
         <v>22630</v>
       </c>
-      <c r="AA32">
+      <c r="AI32">
         <v>3.2723900000000001</v>
       </c>
-      <c r="AC32">
+      <c r="AL32">
         <v>24752</v>
       </c>
-      <c r="AD32">
+      <c r="AM32">
         <v>3.1169500000000001</v>
       </c>
-      <c r="AF32">
+      <c r="AP32">
         <v>26579</v>
       </c>
-      <c r="AG32">
+      <c r="AQ32">
         <v>3.0809799999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>5977</v>
       </c>
       <c r="C33">
         <v>4.18933</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>7537</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>4.0906000000000002</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>9698</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>4.0076499999999999</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>11858</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>3.8861300000000001</v>
       </c>
-      <c r="N33">
+      <c r="R33">
         <v>14018</v>
       </c>
-      <c r="O33">
+      <c r="S33">
         <v>3.8051200000000001</v>
       </c>
-      <c r="Q33">
+      <c r="V33">
         <v>16179</v>
       </c>
-      <c r="R33">
+      <c r="W33">
         <v>3.6876199999999999</v>
       </c>
-      <c r="T33">
+      <c r="Z33">
         <v>18339</v>
       </c>
-      <c r="U33">
+      <c r="AA33">
         <v>3.55165</v>
       </c>
-      <c r="W33">
+      <c r="AD33">
         <v>20500</v>
       </c>
-      <c r="X33">
+      <c r="AE33">
         <v>3.42117</v>
       </c>
-      <c r="Z33">
+      <c r="AH33">
         <v>22660</v>
       </c>
-      <c r="AA33">
+      <c r="AI33">
         <v>3.2725900000000001</v>
       </c>
-      <c r="AC33">
+      <c r="AL33">
         <v>24782</v>
       </c>
-      <c r="AD33">
+      <c r="AM33">
         <v>3.1173899999999999</v>
       </c>
-      <c r="AF33">
+      <c r="AP33">
         <v>26609</v>
       </c>
-      <c r="AG33">
+      <c r="AQ33">
         <v>3.0814599999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>6007</v>
       </c>
       <c r="C34">
         <v>4.1890599999999996</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>7567</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>4.0905399999999998</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>9728</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>4.0077600000000002</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>11888</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>3.8861699999999999</v>
       </c>
-      <c r="N34">
+      <c r="R34">
         <v>14048</v>
       </c>
-      <c r="O34">
+      <c r="S34">
         <v>3.8051499999999998</v>
       </c>
-      <c r="Q34">
+      <c r="V34">
         <v>16209</v>
       </c>
-      <c r="R34">
+      <c r="W34">
         <v>3.6876799999999998</v>
       </c>
-      <c r="T34">
+      <c r="Z34">
         <v>18369</v>
       </c>
-      <c r="U34">
+      <c r="AA34">
         <v>3.5516800000000002</v>
       </c>
-      <c r="W34">
+      <c r="AD34">
         <v>20530</v>
       </c>
-      <c r="X34">
+      <c r="AE34">
         <v>3.4213200000000001</v>
       </c>
-      <c r="Z34">
+      <c r="AH34">
         <v>22690</v>
       </c>
-      <c r="AA34">
+      <c r="AI34">
         <v>3.27284</v>
       </c>
-      <c r="AC34">
+      <c r="AL34">
         <v>24812</v>
       </c>
-      <c r="AD34">
+      <c r="AM34">
         <v>3.1176900000000001</v>
       </c>
-      <c r="AF34">
+      <c r="AP34">
         <v>26639</v>
       </c>
-      <c r="AG34">
+      <c r="AQ34">
         <v>3.08189</v>
       </c>
     </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>6037</v>
       </c>
       <c r="C35">
         <v>4.1888899999999998</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>7597</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>4.0906399999999996</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>9758</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>4.00786</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>11918</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>3.8861699999999999</v>
       </c>
-      <c r="N35">
+      <c r="R35">
         <v>14078</v>
       </c>
-      <c r="O35">
+      <c r="S35">
         <v>3.8052600000000001</v>
       </c>
-      <c r="Q35">
+      <c r="V35">
         <v>16239</v>
       </c>
-      <c r="R35">
+      <c r="W35">
         <v>3.6876899999999999</v>
       </c>
-      <c r="T35">
+      <c r="Z35">
         <v>18399</v>
       </c>
-      <c r="U35">
+      <c r="AA35">
         <v>3.5516899999999998</v>
       </c>
-      <c r="W35">
+      <c r="AD35">
         <v>20560</v>
       </c>
-      <c r="X35">
+      <c r="AE35">
         <v>3.4215499999999999</v>
       </c>
-      <c r="Z35">
+      <c r="AH35">
         <v>22720</v>
       </c>
-      <c r="AA35">
+      <c r="AI35">
         <v>3.2730600000000001</v>
       </c>
-      <c r="AC35">
+      <c r="AL35">
         <v>24842</v>
       </c>
-      <c r="AD35">
+      <c r="AM35">
         <v>3.1181199999999998</v>
       </c>
-      <c r="AF35">
+      <c r="AP35">
         <v>26669</v>
       </c>
-      <c r="AG35">
+      <c r="AQ35">
         <v>3.0823700000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>6067</v>
       </c>
       <c r="C36">
         <v>4.1887699999999999</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>7627</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>4.0906500000000001</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>9788</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>4.0080099999999996</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>11948</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>3.88632</v>
       </c>
-      <c r="N36">
+      <c r="R36">
         <v>14108</v>
       </c>
-      <c r="O36">
+      <c r="S36">
         <v>3.8052600000000001</v>
       </c>
-      <c r="Q36">
+      <c r="V36">
         <v>16269</v>
       </c>
-      <c r="R36">
+      <c r="W36">
         <v>3.68777</v>
       </c>
-      <c r="T36">
+      <c r="Z36">
         <v>18429</v>
       </c>
-      <c r="U36">
+      <c r="AA36">
         <v>3.5518200000000002</v>
       </c>
-      <c r="W36">
+      <c r="AD36">
         <v>20590</v>
       </c>
-      <c r="X36">
+      <c r="AE36">
         <v>3.4217499999999998</v>
       </c>
-      <c r="Z36">
+      <c r="AH36">
         <v>22750</v>
       </c>
-      <c r="AA36">
+      <c r="AI36">
         <v>3.2732600000000001</v>
       </c>
-      <c r="AC36">
+      <c r="AL36">
         <v>24872</v>
       </c>
-      <c r="AD36">
+      <c r="AM36">
         <v>3.1184599999999998</v>
       </c>
-      <c r="AF36">
+      <c r="AP36">
         <v>26699</v>
       </c>
-      <c r="AG36">
+      <c r="AQ36">
         <v>3.0828199999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>6097</v>
       </c>
       <c r="C37">
         <v>4.18858</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>7657</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>4.0906399999999996</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>9818</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>4.0080400000000003</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>11978</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>3.8863799999999999</v>
       </c>
-      <c r="N37">
+      <c r="R37">
         <v>14138</v>
       </c>
-      <c r="O37">
+      <c r="S37">
         <v>3.80532</v>
       </c>
-      <c r="Q37">
+      <c r="V37">
         <v>16299</v>
       </c>
-      <c r="R37">
+      <c r="W37">
         <v>3.6878199999999999</v>
       </c>
-      <c r="T37">
+      <c r="Z37">
         <v>18459</v>
       </c>
-      <c r="U37">
+      <c r="AA37">
         <v>3.55185</v>
       </c>
-      <c r="W37">
+      <c r="AD37">
         <v>20620</v>
       </c>
-      <c r="X37">
+      <c r="AE37">
         <v>3.4219599999999999</v>
       </c>
-      <c r="Z37">
+      <c r="AH37">
         <v>22780</v>
       </c>
-      <c r="AA37">
+      <c r="AI37">
         <v>3.2734800000000002</v>
       </c>
-      <c r="AC37">
+      <c r="AL37">
         <v>24902</v>
       </c>
-      <c r="AD37">
+      <c r="AM37">
         <v>3.1187100000000001</v>
       </c>
-      <c r="AF37">
+      <c r="AP37">
         <v>26729</v>
       </c>
-      <c r="AG37">
+      <c r="AQ37">
         <v>3.0831499999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>6127</v>
       </c>
       <c r="C38">
         <v>4.1883999999999997</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>7687</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>4.0907400000000003</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>9848</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>4.0080799999999996</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>12008</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>3.8864700000000001</v>
       </c>
-      <c r="N38">
+      <c r="R38">
         <v>14168</v>
       </c>
-      <c r="O38">
+      <c r="S38">
         <v>3.8053499999999998</v>
       </c>
-      <c r="Q38">
+      <c r="V38">
         <v>16329</v>
       </c>
-      <c r="R38">
+      <c r="W38">
         <v>3.6878099999999998</v>
       </c>
-      <c r="T38">
+      <c r="Z38">
         <v>18489</v>
       </c>
-      <c r="U38">
+      <c r="AA38">
         <v>3.55192</v>
       </c>
-      <c r="W38">
+      <c r="AD38">
         <v>20650</v>
       </c>
-      <c r="X38">
+      <c r="AE38">
         <v>3.4220600000000001</v>
       </c>
-      <c r="Z38">
+      <c r="AH38">
         <v>22810</v>
       </c>
-      <c r="AA38">
+      <c r="AI38">
         <v>3.2736100000000001</v>
       </c>
-      <c r="AC38">
+      <c r="AL38">
         <v>24932</v>
       </c>
-      <c r="AD38">
+      <c r="AM38">
         <v>3.1190500000000001</v>
       </c>
-      <c r="AF38">
+      <c r="AP38">
         <v>26759</v>
       </c>
-      <c r="AG38">
+      <c r="AQ38">
         <v>3.08365</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>6157</v>
       </c>
       <c r="C39">
         <v>4.1882200000000003</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>7717</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>4.0906900000000004</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>9878</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>4.0081499999999997</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>12038</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>3.88653</v>
       </c>
-      <c r="N39">
+      <c r="R39">
         <v>14198</v>
       </c>
-      <c r="O39">
+      <c r="S39">
         <v>3.8054700000000001</v>
       </c>
-      <c r="Q39">
+      <c r="V39">
         <v>16359</v>
       </c>
-      <c r="R39">
+      <c r="W39">
         <v>3.6879300000000002</v>
       </c>
-      <c r="T39">
+      <c r="Z39">
         <v>18519</v>
       </c>
-      <c r="U39">
+      <c r="AA39">
         <v>3.5519799999999999</v>
       </c>
-      <c r="W39">
+      <c r="AD39">
         <v>20680</v>
       </c>
-      <c r="X39">
+      <c r="AE39">
         <v>3.4221400000000002</v>
       </c>
-      <c r="Z39">
+      <c r="AH39">
         <v>22840</v>
       </c>
-      <c r="AA39">
+      <c r="AI39">
         <v>3.2738700000000001</v>
       </c>
-      <c r="AC39">
+      <c r="AL39">
         <v>24962</v>
       </c>
-      <c r="AD39">
+      <c r="AM39">
         <v>3.1193499999999998</v>
       </c>
-      <c r="AF39">
+      <c r="AP39">
         <v>26789</v>
       </c>
-      <c r="AG39">
+      <c r="AQ39">
         <v>3.08399</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>6187</v>
       </c>
       <c r="C40">
         <v>4.1880600000000001</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>7747</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>4.0906500000000001</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>9908</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>4.0081100000000003</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>12068</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <v>3.8865799999999999</v>
       </c>
-      <c r="N40">
+      <c r="R40">
         <v>14228</v>
       </c>
-      <c r="O40">
+      <c r="S40">
         <v>3.80545</v>
       </c>
-      <c r="Q40">
+      <c r="V40">
         <v>16389</v>
       </c>
-      <c r="R40">
+      <c r="W40">
         <v>3.6880299999999999</v>
       </c>
-      <c r="T40">
+      <c r="Z40">
         <v>18549</v>
       </c>
-      <c r="U40">
+      <c r="AA40">
         <v>3.5520100000000001</v>
       </c>
-      <c r="W40">
+      <c r="AD40">
         <v>20710</v>
       </c>
-      <c r="X40">
+      <c r="AE40">
         <v>3.4223499999999998</v>
       </c>
-      <c r="Z40">
+      <c r="AH40">
         <v>22870</v>
       </c>
-      <c r="AA40">
+      <c r="AI40">
         <v>3.2740399999999998</v>
       </c>
-      <c r="AC40">
+      <c r="AL40">
         <v>24992</v>
       </c>
-      <c r="AD40">
+      <c r="AM40">
         <v>3.1196600000000001</v>
       </c>
-      <c r="AF40">
+      <c r="AP40">
         <v>26819</v>
       </c>
-      <c r="AG40">
+      <c r="AQ40">
         <v>3.0844399999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>6217</v>
       </c>
       <c r="C41">
         <v>4.1879900000000001</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>7777</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>4.0906700000000003</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>9938</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>4.0082300000000002</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>12098</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>3.8866000000000001</v>
       </c>
-      <c r="N41">
+      <c r="R41">
         <v>14258</v>
       </c>
-      <c r="O41">
+      <c r="S41">
         <v>3.80545</v>
       </c>
-      <c r="Q41">
+      <c r="V41">
         <v>16419</v>
       </c>
-      <c r="R41">
+      <c r="W41">
         <v>3.68804</v>
       </c>
-      <c r="T41">
+      <c r="Z41">
         <v>18579</v>
       </c>
-      <c r="U41">
+      <c r="AA41">
         <v>3.55206</v>
       </c>
-      <c r="W41">
+      <c r="AD41">
         <v>20740</v>
       </c>
-      <c r="X41">
+      <c r="AE41">
         <v>3.4224600000000001</v>
       </c>
-      <c r="Z41">
+      <c r="AH41">
         <v>22900</v>
       </c>
-      <c r="AA41">
+      <c r="AI41">
         <v>3.2741600000000002</v>
       </c>
-      <c r="AC41">
+      <c r="AL41">
         <v>25022</v>
       </c>
-      <c r="AD41">
+      <c r="AM41">
         <v>3.1198600000000001</v>
       </c>
-      <c r="AF41">
+      <c r="AP41">
         <v>26849</v>
       </c>
-      <c r="AG41">
+      <c r="AQ41">
         <v>3.0847600000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>6247</v>
       </c>
       <c r="C42">
         <v>4.1878900000000003</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>7807</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>4.0906900000000004</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>9968</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>4.0082700000000004</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>12128</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>3.8866299999999998</v>
       </c>
-      <c r="N42">
+      <c r="R42">
         <v>14288</v>
       </c>
-      <c r="O42">
+      <c r="S42">
         <v>3.8055099999999999</v>
       </c>
-      <c r="Q42">
+      <c r="V42">
         <v>16449</v>
       </c>
-      <c r="R42">
+      <c r="W42">
         <v>3.6881599999999999</v>
       </c>
-      <c r="T42">
+      <c r="Z42">
         <v>18609</v>
       </c>
-      <c r="U42">
+      <c r="AA42">
         <v>3.5521199999999999</v>
       </c>
-      <c r="W42">
+      <c r="AD42">
         <v>20770</v>
       </c>
-      <c r="X42">
+      <c r="AE42">
         <v>3.4226000000000001</v>
       </c>
-      <c r="Z42">
+      <c r="AH42">
         <v>22930</v>
       </c>
-      <c r="AA42">
+      <c r="AI42">
         <v>3.2744</v>
       </c>
-      <c r="AC42">
+      <c r="AL42">
         <v>25052</v>
       </c>
-      <c r="AD42">
+      <c r="AM42">
         <v>3.1202000000000001</v>
       </c>
-      <c r="AF42">
+      <c r="AP42">
         <v>26879</v>
       </c>
-      <c r="AG42">
+      <c r="AQ42">
         <v>3.08514</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>6277</v>
       </c>
       <c r="C43">
         <v>4.1876899999999999</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>7837</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>4.0907799999999996</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>9998</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>4.0083099999999998</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>12158</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>3.8866900000000002</v>
       </c>
-      <c r="N43">
+      <c r="R43">
         <v>14318</v>
       </c>
-      <c r="O43">
+      <c r="S43">
         <v>3.8054899999999998</v>
       </c>
-      <c r="Q43">
+      <c r="V43">
         <v>16479</v>
       </c>
-      <c r="R43">
+      <c r="W43">
         <v>3.6881400000000002</v>
       </c>
-      <c r="T43">
+      <c r="Z43">
         <v>18639</v>
       </c>
-      <c r="U43">
+      <c r="AA43">
         <v>3.5521600000000002</v>
       </c>
-      <c r="W43">
+      <c r="AD43">
         <v>20800</v>
       </c>
-      <c r="X43">
+      <c r="AE43">
         <v>3.4227400000000001</v>
       </c>
-      <c r="Z43">
+      <c r="AH43">
         <v>22960</v>
       </c>
-      <c r="AA43">
+      <c r="AI43">
         <v>3.2745600000000001</v>
       </c>
-      <c r="AC43">
+      <c r="AL43">
         <v>25082</v>
       </c>
-      <c r="AD43">
+      <c r="AM43">
         <v>3.1204700000000001</v>
       </c>
-      <c r="AF43">
+      <c r="AP43">
         <v>26909</v>
       </c>
-      <c r="AG43">
+      <c r="AQ43">
         <v>3.0855700000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>6307</v>
       </c>
       <c r="C44">
         <v>4.1875499999999999</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>7867</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>4.09077</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>10028</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>4.0082899999999997</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>12188</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>3.8867099999999999</v>
       </c>
-      <c r="N44">
+      <c r="R44">
         <v>14348</v>
       </c>
-      <c r="O44">
+      <c r="S44">
         <v>3.80558</v>
       </c>
-      <c r="Q44">
+      <c r="V44">
         <v>16509</v>
       </c>
-      <c r="R44">
+      <c r="W44">
         <v>3.6881300000000001</v>
       </c>
-      <c r="T44">
+      <c r="Z44">
         <v>18669</v>
       </c>
-      <c r="U44">
+      <c r="AA44">
         <v>3.5522100000000001</v>
       </c>
-      <c r="W44">
+      <c r="AD44">
         <v>20830</v>
       </c>
-      <c r="X44">
+      <c r="AE44">
         <v>3.42286</v>
       </c>
-      <c r="Z44">
+      <c r="AH44">
         <v>22990</v>
       </c>
-      <c r="AA44">
+      <c r="AI44">
         <v>3.27468</v>
       </c>
-      <c r="AC44">
+      <c r="AL44">
         <v>25112</v>
       </c>
-      <c r="AD44">
+      <c r="AM44">
         <v>3.1207699999999998</v>
       </c>
-      <c r="AF44">
+      <c r="AP44">
         <v>26939</v>
       </c>
-      <c r="AG44">
+      <c r="AQ44">
         <v>3.0858400000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:43" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>6337</v>
       </c>
       <c r="C45">
         <v>4.18729</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>7897</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>4.0907099999999996</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>10058</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>4.0083399999999996</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>12218</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>3.8866900000000002</v>
       </c>
-      <c r="N45">
+      <c r="R45">
         <v>14378</v>
       </c>
-      <c r="O45">
+      <c r="S45">
         <v>3.80559</v>
       </c>
-      <c r="Q45">
+      <c r="V45">
         <v>16539</v>
       </c>
-      <c r="R45">
+      <c r="W45">
         <v>3.68824</v>
       </c>
-      <c r="T45">
+      <c r="Z45">
         <v>18699</v>
       </c>
-      <c r="U45">
+      <c r="AA45">
         <v>3.5522300000000002</v>
       </c>
-      <c r="W45">
+      <c r="AD45">
         <v>20860</v>
       </c>
-      <c r="X45">
+      <c r="AE45">
         <v>3.4229799999999999</v>
       </c>
-      <c r="Z45">
+      <c r="AH45">
         <v>23020</v>
       </c>
-      <c r="AA45">
+      <c r="AI45">
         <v>3.27488</v>
       </c>
-      <c r="AC45">
+      <c r="AL45">
         <v>25142</v>
       </c>
-      <c r="AD45">
+      <c r="AM45">
         <v>3.1210399999999998</v>
       </c>
-      <c r="AF45">
+      <c r="AP45">
         <v>26969</v>
       </c>
-      <c r="AG45">
+      <c r="AQ45">
         <v>3.0862599999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="E46">
+    <row r="46" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="F46">
         <v>7927</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>4.0907999999999998</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>10088</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>4.0083399999999996</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>12248</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>3.8867699999999998</v>
       </c>
-      <c r="N46">
+      <c r="R46">
         <v>14408</v>
       </c>
-      <c r="O46">
+      <c r="S46">
         <v>3.8056199999999998</v>
       </c>
-      <c r="Q46">
+      <c r="V46">
         <v>16569</v>
       </c>
-      <c r="R46">
+      <c r="W46">
         <v>3.6882299999999999</v>
       </c>
-      <c r="T46">
+      <c r="Z46">
         <v>18729</v>
       </c>
-      <c r="U46">
+      <c r="AA46">
         <v>3.5522900000000002</v>
       </c>
-      <c r="W46">
+      <c r="AD46">
         <v>20890</v>
       </c>
-      <c r="X46">
+      <c r="AE46">
         <v>3.42306</v>
       </c>
-      <c r="Z46">
+      <c r="AH46">
         <v>23050</v>
       </c>
-      <c r="AA46">
+      <c r="AI46">
         <v>3.27494</v>
       </c>
-      <c r="AC46">
+      <c r="AL46">
         <v>25172</v>
       </c>
-      <c r="AD46">
+      <c r="AM46">
         <v>3.12127</v>
       </c>
-      <c r="AF46">
+      <c r="AP46">
         <v>26999</v>
       </c>
-      <c r="AG46">
+      <c r="AQ46">
         <v>3.0865200000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="E47">
+    <row r="47" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="F47">
         <v>7957</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>4.0907299999999998</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>10118</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>4.0083599999999997</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>12278</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>3.8868299999999998</v>
       </c>
-      <c r="N47">
+      <c r="R47">
         <v>14438</v>
       </c>
-      <c r="O47">
+      <c r="S47">
         <v>3.80566</v>
       </c>
-      <c r="Q47">
+      <c r="V47">
         <v>16599</v>
       </c>
-      <c r="R47">
+      <c r="W47">
         <v>3.6882999999999999</v>
       </c>
-      <c r="T47">
+      <c r="Z47">
         <v>18759</v>
       </c>
-      <c r="U47">
+      <c r="AA47">
         <v>3.5523099999999999</v>
       </c>
-      <c r="W47">
+      <c r="AD47">
         <v>20920</v>
       </c>
-      <c r="X47">
+      <c r="AE47">
         <v>3.42319</v>
       </c>
-      <c r="Z47">
+      <c r="AH47">
         <v>23080</v>
       </c>
-      <c r="AA47">
+      <c r="AI47">
         <v>3.2751299999999999</v>
       </c>
-      <c r="AC47">
+      <c r="AL47">
         <v>25202</v>
       </c>
-      <c r="AD47">
+      <c r="AM47">
         <v>3.12147</v>
       </c>
-      <c r="AF47">
+      <c r="AP47">
         <v>27029</v>
       </c>
-      <c r="AG47">
+      <c r="AQ47">
         <v>3.0867599999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.35">
-      <c r="E48">
+    <row r="48" spans="2:43" x14ac:dyDescent="0.35">
+      <c r="F48">
         <v>7987</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>4.0907600000000004</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>10148</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>4.00847</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>12308</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <v>3.8868</v>
       </c>
-      <c r="N48">
+      <c r="R48">
         <v>14468</v>
       </c>
-      <c r="O48">
+      <c r="S48">
         <v>3.80572</v>
       </c>
-      <c r="Q48">
+      <c r="V48">
         <v>16629</v>
       </c>
-      <c r="R48">
+      <c r="W48">
         <v>3.68831</v>
       </c>
-      <c r="T48">
+      <c r="Z48">
         <v>18789</v>
       </c>
-      <c r="U48">
+      <c r="AA48">
         <v>3.55233</v>
       </c>
-      <c r="W48">
+      <c r="AD48">
         <v>20950</v>
       </c>
-      <c r="X48">
+      <c r="AE48">
         <v>3.4233500000000001</v>
       </c>
-      <c r="Z48">
+      <c r="AH48">
         <v>23110</v>
       </c>
-      <c r="AA48">
+      <c r="AI48">
         <v>3.2752699999999999</v>
       </c>
-      <c r="AC48">
+      <c r="AL48">
         <v>25232</v>
       </c>
-      <c r="AD48">
+      <c r="AM48">
         <v>3.1217199999999998</v>
       </c>
-      <c r="AF48">
+      <c r="AP48">
         <v>27059</v>
       </c>
-      <c r="AG48">
+      <c r="AQ48">
         <v>3.0871200000000001</v>
       </c>
     </row>
-    <row r="49" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E49">
+    <row r="49" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F49">
         <v>8017</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>4.0908100000000003</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>10178</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>4.0084299999999997</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <v>12338</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <v>3.88687</v>
       </c>
-      <c r="N49">
+      <c r="R49">
         <v>14498</v>
       </c>
-      <c r="O49">
+      <c r="S49">
         <v>3.8056899999999998</v>
       </c>
-      <c r="Q49">
+      <c r="V49">
         <v>16659</v>
       </c>
-      <c r="R49">
+      <c r="W49">
         <v>3.6883599999999999</v>
       </c>
-      <c r="T49">
+      <c r="Z49">
         <v>18819</v>
       </c>
-      <c r="U49">
+      <c r="AA49">
         <v>3.5523699999999998</v>
       </c>
-      <c r="W49">
+      <c r="AD49">
         <v>20980</v>
       </c>
-      <c r="X49">
+      <c r="AE49">
         <v>3.42354</v>
       </c>
-      <c r="Z49">
+      <c r="AH49">
         <v>23140</v>
       </c>
-      <c r="AA49">
+      <c r="AI49">
         <v>3.2754599999999998</v>
       </c>
-      <c r="AC49">
+      <c r="AL49">
         <v>25262</v>
       </c>
-      <c r="AD49">
+      <c r="AM49">
         <v>3.1219199999999998</v>
       </c>
-      <c r="AF49">
+      <c r="AP49">
         <v>27089</v>
       </c>
-      <c r="AG49">
+      <c r="AQ49">
         <v>3.0873599999999999</v>
       </c>
     </row>
-    <row r="50" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E50">
+    <row r="50" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F50">
         <v>8047</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>4.0907499999999999</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>10208</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>4.0084499999999998</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <v>12368</v>
       </c>
-      <c r="L50">
+      <c r="O50">
         <v>3.8868299999999998</v>
       </c>
-      <c r="N50">
+      <c r="R50">
         <v>14528</v>
       </c>
-      <c r="O50">
+      <c r="S50">
         <v>3.8057500000000002</v>
       </c>
-      <c r="Q50">
+      <c r="V50">
         <v>16689</v>
       </c>
-      <c r="R50">
+      <c r="W50">
         <v>3.6883699999999999</v>
       </c>
-      <c r="T50">
+      <c r="Z50">
         <v>18849</v>
       </c>
-      <c r="U50">
+      <c r="AA50">
         <v>3.55233</v>
       </c>
-      <c r="W50">
+      <c r="AD50">
         <v>21010</v>
       </c>
-      <c r="X50">
+      <c r="AE50">
         <v>3.4236300000000002</v>
       </c>
-      <c r="Z50">
+      <c r="AH50">
         <v>23170</v>
       </c>
-      <c r="AA50">
+      <c r="AI50">
         <v>3.27555</v>
       </c>
-      <c r="AC50">
+      <c r="AL50">
         <v>25292</v>
       </c>
-      <c r="AD50">
+      <c r="AM50">
         <v>3.1221100000000002</v>
       </c>
-      <c r="AF50">
+      <c r="AP50">
         <v>27119</v>
       </c>
-      <c r="AG50">
+      <c r="AQ50">
         <v>3.08771</v>
       </c>
     </row>
-    <row r="51" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E51">
+    <row r="51" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F51">
         <v>8077</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>4.0907900000000001</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>10238</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>4.0085100000000002</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>12398</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <v>3.8869099999999999</v>
       </c>
-      <c r="N51">
+      <c r="R51">
         <v>14558</v>
       </c>
-      <c r="O51">
+      <c r="S51">
         <v>3.8057099999999999</v>
       </c>
-      <c r="Q51">
+      <c r="V51">
         <v>16719</v>
       </c>
-      <c r="R51">
+      <c r="W51">
         <v>3.6884600000000001</v>
       </c>
-      <c r="T51">
+      <c r="Z51">
         <v>18879</v>
       </c>
-      <c r="U51">
+      <c r="AA51">
         <v>3.55233</v>
       </c>
-      <c r="W51">
+      <c r="AD51">
         <v>21040</v>
       </c>
-      <c r="X51">
+      <c r="AE51">
         <v>3.4237099999999998</v>
       </c>
-      <c r="Z51">
+      <c r="AH51">
         <v>23200</v>
       </c>
-      <c r="AA51">
+      <c r="AI51">
         <v>3.2756099999999999</v>
       </c>
-      <c r="AC51">
+      <c r="AL51">
         <v>25322</v>
       </c>
-      <c r="AD51">
+      <c r="AM51">
         <v>3.1223399999999999</v>
       </c>
-      <c r="AF51">
+      <c r="AP51">
         <v>27149</v>
       </c>
-      <c r="AG51">
+      <c r="AQ51">
         <v>3.0880000000000001</v>
       </c>
     </row>
-    <row r="52" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E52">
+    <row r="52" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F52">
         <v>8107</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>4.0907900000000001</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>10268</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>4.0084999999999997</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>12428</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>3.8870200000000001</v>
       </c>
-      <c r="N52">
+      <c r="R52">
         <v>14588</v>
       </c>
-      <c r="O52">
+      <c r="S52">
         <v>3.8057500000000002</v>
       </c>
-      <c r="Q52">
+      <c r="V52">
         <v>16749</v>
       </c>
-      <c r="R52">
+      <c r="W52">
         <v>3.6884800000000002</v>
       </c>
-      <c r="T52">
+      <c r="Z52">
         <v>18909</v>
       </c>
-      <c r="U52">
+      <c r="AA52">
         <v>3.5524300000000002</v>
       </c>
-      <c r="W52">
+      <c r="AD52">
         <v>21070</v>
       </c>
-      <c r="X52">
+      <c r="AE52">
         <v>3.42374</v>
       </c>
-      <c r="Z52">
+      <c r="AH52">
         <v>23230</v>
       </c>
-      <c r="AA52">
+      <c r="AI52">
         <v>3.2757999999999998</v>
       </c>
-      <c r="AC52">
+      <c r="AL52">
         <v>25352</v>
       </c>
-      <c r="AD52">
+      <c r="AM52">
         <v>3.1225999999999998</v>
       </c>
-      <c r="AF52">
+      <c r="AP52">
         <v>27179</v>
       </c>
-      <c r="AG52">
+      <c r="AQ52">
         <v>3.08826</v>
       </c>
     </row>
-    <row r="53" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E53">
+    <row r="53" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F53">
         <v>8137</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>4.0907900000000001</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>10298</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>4.0085100000000002</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>12458</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>3.8870200000000001</v>
       </c>
-      <c r="N53">
+      <c r="R53">
         <v>14618</v>
       </c>
-      <c r="O53">
+      <c r="S53">
         <v>3.8057400000000001</v>
       </c>
-      <c r="Q53">
+      <c r="V53">
         <v>16779</v>
       </c>
-      <c r="R53">
+      <c r="W53">
         <v>3.6884700000000001</v>
       </c>
-      <c r="T53">
+      <c r="Z53">
         <v>18939</v>
       </c>
-      <c r="U53">
+      <c r="AA53">
         <v>3.55246</v>
       </c>
-      <c r="W53">
+      <c r="AD53">
         <v>21100</v>
       </c>
-      <c r="X53">
+      <c r="AE53">
         <v>3.4238</v>
       </c>
-      <c r="Z53">
+      <c r="AH53">
         <v>23260</v>
       </c>
-      <c r="AA53">
+      <c r="AI53">
         <v>3.27589</v>
       </c>
-      <c r="AC53">
+      <c r="AL53">
         <v>25382</v>
       </c>
-      <c r="AD53">
+      <c r="AM53">
         <v>3.1227499999999999</v>
       </c>
-      <c r="AF53">
+      <c r="AP53">
         <v>27209</v>
       </c>
-      <c r="AG53">
+      <c r="AQ53">
         <v>3.0886100000000001</v>
       </c>
     </row>
-    <row r="54" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E54">
+    <row r="54" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F54">
         <v>8167</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>4.0908300000000004</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>10328</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>4.0085899999999999</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>12488</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>3.8870399999999998</v>
       </c>
-      <c r="N54">
+      <c r="R54">
         <v>14648</v>
       </c>
-      <c r="O54">
+      <c r="S54">
         <v>3.8058100000000001</v>
       </c>
-      <c r="Q54">
+      <c r="V54">
         <v>16809</v>
       </c>
-      <c r="R54">
+      <c r="W54">
         <v>3.6884600000000001</v>
       </c>
-      <c r="T54">
+      <c r="Z54">
         <v>18969</v>
       </c>
-      <c r="U54">
+      <c r="AA54">
         <v>3.5525099999999998</v>
       </c>
-      <c r="W54">
+      <c r="AD54">
         <v>21130</v>
       </c>
-      <c r="X54">
+      <c r="AE54">
         <v>3.4238599999999999</v>
       </c>
-      <c r="Z54">
+      <c r="AH54">
         <v>23290</v>
       </c>
-      <c r="AA54">
+      <c r="AI54">
         <v>3.2761100000000001</v>
       </c>
-      <c r="AC54">
+      <c r="AL54">
         <v>25412</v>
       </c>
-      <c r="AD54">
+      <c r="AM54">
         <v>3.12303</v>
       </c>
-      <c r="AF54">
+      <c r="AP54">
         <v>27239</v>
       </c>
-      <c r="AG54">
+      <c r="AQ54">
         <v>3.0887500000000001</v>
       </c>
     </row>
-    <row r="55" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E55">
+    <row r="55" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F55">
         <v>8197</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>4.0907999999999998</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>10358</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>4.0086000000000004</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>12518</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <v>3.8870100000000001</v>
       </c>
-      <c r="N55">
+      <c r="R55">
         <v>14678</v>
       </c>
-      <c r="O55">
+      <c r="S55">
         <v>3.8058200000000002</v>
       </c>
-      <c r="Q55">
+      <c r="V55">
         <v>16839</v>
       </c>
-      <c r="R55">
+      <c r="W55">
         <v>3.6884999999999999</v>
       </c>
-      <c r="T55">
+      <c r="Z55">
         <v>18999</v>
       </c>
-      <c r="U55">
+      <c r="AA55">
         <v>3.5525500000000001</v>
       </c>
-      <c r="W55">
+      <c r="AD55">
         <v>21160</v>
       </c>
-      <c r="X55">
+      <c r="AE55">
         <v>3.4239299999999999</v>
       </c>
-      <c r="Z55">
+      <c r="AH55">
         <v>23320</v>
       </c>
-      <c r="AA55">
+      <c r="AI55">
         <v>3.2761499999999999</v>
       </c>
-      <c r="AC55">
+      <c r="AL55">
         <v>25442</v>
       </c>
-      <c r="AD55">
+      <c r="AM55">
         <v>3.1231499999999999</v>
       </c>
-      <c r="AF55">
+      <c r="AP55">
         <v>27269</v>
       </c>
-      <c r="AG55">
+      <c r="AQ55">
         <v>3.0891099999999998</v>
       </c>
     </row>
-    <row r="56" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E56">
+    <row r="56" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F56">
         <v>8227</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>4.0908499999999997</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>10388</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>4.0086000000000004</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>12548</v>
       </c>
-      <c r="L56">
+      <c r="O56">
         <v>3.8870900000000002</v>
       </c>
-      <c r="N56">
+      <c r="R56">
         <v>14708</v>
       </c>
-      <c r="O56">
+      <c r="S56">
         <v>3.80585</v>
       </c>
-      <c r="Q56">
+      <c r="V56">
         <v>16869</v>
       </c>
-      <c r="R56">
+      <c r="W56">
         <v>3.6884999999999999</v>
       </c>
-      <c r="T56">
+      <c r="Z56">
         <v>19029</v>
       </c>
-      <c r="U56">
+      <c r="AA56">
         <v>3.55254</v>
       </c>
-      <c r="W56">
+      <c r="AD56">
         <v>21190</v>
       </c>
-      <c r="X56">
+      <c r="AE56">
         <v>3.4241000000000001</v>
       </c>
-      <c r="Z56">
+      <c r="AH56">
         <v>23350</v>
       </c>
-      <c r="AA56">
+      <c r="AI56">
         <v>3.2763599999999999</v>
       </c>
-      <c r="AC56">
+      <c r="AL56">
         <v>25472</v>
       </c>
-      <c r="AD56">
+      <c r="AM56">
         <v>3.1234000000000002</v>
       </c>
-      <c r="AF56">
+      <c r="AP56">
         <v>27299</v>
       </c>
-      <c r="AG56">
+      <c r="AQ56">
         <v>3.0893600000000001</v>
       </c>
     </row>
-    <row r="57" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E57">
+    <row r="57" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F57">
         <v>8257</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>4.0907900000000001</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>10418</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>4.0085899999999999</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>12578</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>3.88707</v>
       </c>
-      <c r="N57">
+      <c r="R57">
         <v>14738</v>
       </c>
-      <c r="O57">
+      <c r="S57">
         <v>3.80579</v>
       </c>
-      <c r="Q57">
+      <c r="V57">
         <v>16899</v>
       </c>
-      <c r="R57">
+      <c r="W57">
         <v>3.6885599999999998</v>
       </c>
-      <c r="T57">
+      <c r="Z57">
         <v>19059</v>
       </c>
-      <c r="U57">
+      <c r="AA57">
         <v>3.5526200000000001</v>
       </c>
-      <c r="W57">
+      <c r="AD57">
         <v>21220</v>
       </c>
-      <c r="X57">
+      <c r="AE57">
         <v>3.4242599999999999</v>
       </c>
-      <c r="Z57">
+      <c r="AH57">
         <v>23380</v>
       </c>
-      <c r="AA57">
+      <c r="AI57">
         <v>3.2764099999999998</v>
       </c>
-      <c r="AC57">
+      <c r="AL57">
         <v>25502</v>
       </c>
-      <c r="AD57">
+      <c r="AM57">
         <v>3.1235599999999999</v>
       </c>
-      <c r="AF57">
+      <c r="AP57">
         <v>27329</v>
       </c>
-      <c r="AG57">
+      <c r="AQ57">
         <v>3.0895899999999998</v>
       </c>
     </row>
-    <row r="58" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E58">
+    <row r="58" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F58">
         <v>8287</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>4.09084</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>10448</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>4.0086300000000001</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>12608</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>3.8871099999999998</v>
       </c>
-      <c r="N58">
+      <c r="R58">
         <v>14768</v>
       </c>
-      <c r="O58">
+      <c r="S58">
         <v>3.8058100000000001</v>
       </c>
-      <c r="Q58">
+      <c r="V58">
         <v>16929</v>
       </c>
-      <c r="R58">
+      <c r="W58">
         <v>3.6884899999999998</v>
       </c>
-      <c r="T58">
+      <c r="Z58">
         <v>19089</v>
       </c>
-      <c r="U58">
+      <c r="AA58">
         <v>3.5526599999999999</v>
       </c>
-      <c r="W58">
+      <c r="AD58">
         <v>21250</v>
       </c>
-      <c r="X58">
+      <c r="AE58">
         <v>3.4243199999999998</v>
       </c>
-      <c r="Z58">
+      <c r="AH58">
         <v>23410</v>
       </c>
-      <c r="AA58">
+      <c r="AI58">
         <v>3.2764899999999999</v>
       </c>
-      <c r="AC58">
+      <c r="AL58">
         <v>25532</v>
       </c>
-      <c r="AD58">
+      <c r="AM58">
         <v>3.1237200000000001</v>
       </c>
-      <c r="AF58">
+      <c r="AP58">
         <v>27359</v>
       </c>
-      <c r="AG58">
+      <c r="AQ58">
         <v>3.0897600000000001</v>
       </c>
     </row>
-    <row r="59" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E59">
+    <row r="59" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F59">
         <v>8317</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>4.0908300000000004</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>10478</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>4.0086700000000004</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>12638</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <v>3.88713</v>
       </c>
-      <c r="N59">
+      <c r="R59">
         <v>14798</v>
       </c>
-      <c r="O59">
+      <c r="S59">
         <v>3.8057799999999999</v>
       </c>
-      <c r="Q59">
+      <c r="V59">
         <v>16959</v>
       </c>
-      <c r="R59">
+      <c r="W59">
         <v>3.6885500000000002</v>
       </c>
-      <c r="T59">
+      <c r="Z59">
         <v>19119</v>
       </c>
-      <c r="U59">
+      <c r="AA59">
         <v>3.55274</v>
       </c>
-      <c r="W59">
+      <c r="AD59">
         <v>21280</v>
       </c>
-      <c r="X59">
+      <c r="AE59">
         <v>3.4243700000000001</v>
       </c>
-      <c r="Z59">
+      <c r="AH59">
         <v>23440</v>
       </c>
-      <c r="AA59">
+      <c r="AI59">
         <v>3.2765399999999998</v>
       </c>
-      <c r="AC59">
+      <c r="AL59">
         <v>25562</v>
       </c>
-      <c r="AD59">
+      <c r="AM59">
         <v>3.12391</v>
       </c>
-      <c r="AF59">
+      <c r="AP59">
         <v>27389</v>
       </c>
-      <c r="AG59">
+      <c r="AQ59">
         <v>3.0900500000000002</v>
       </c>
     </row>
-    <row r="60" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E60">
+    <row r="60" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F60">
         <v>8347</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>4.09084</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>10508</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>4.0086500000000003</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>12668</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <v>3.88714</v>
       </c>
-      <c r="N60">
+      <c r="R60">
         <v>14828</v>
       </c>
-      <c r="O60">
+      <c r="S60">
         <v>3.8058700000000001</v>
       </c>
-      <c r="Q60">
+      <c r="V60">
         <v>16989</v>
       </c>
-      <c r="R60">
+      <c r="W60">
         <v>3.6886299999999999</v>
       </c>
-      <c r="T60">
+      <c r="Z60">
         <v>19149</v>
       </c>
-      <c r="U60">
+      <c r="AA60">
         <v>3.5527500000000001</v>
       </c>
-      <c r="W60">
+      <c r="AD60">
         <v>21310</v>
       </c>
-      <c r="X60">
+      <c r="AE60">
         <v>3.4245000000000001</v>
       </c>
-      <c r="Z60">
+      <c r="AH60">
         <v>23470</v>
       </c>
-      <c r="AA60">
+      <c r="AI60">
         <v>3.2766700000000002</v>
       </c>
-      <c r="AC60">
+      <c r="AL60">
         <v>25592</v>
       </c>
-      <c r="AD60">
+      <c r="AM60">
         <v>3.1240800000000002</v>
       </c>
-      <c r="AF60">
+      <c r="AP60">
         <v>27419</v>
       </c>
-      <c r="AG60">
+      <c r="AQ60">
         <v>3.0902699999999999</v>
       </c>
     </row>
-    <row r="61" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E61">
+    <row r="61" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F61">
         <v>8377</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>4.0908499999999997</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>10538</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>4.0086300000000001</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>12698</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <v>3.88714</v>
       </c>
-      <c r="N61">
+      <c r="R61">
         <v>14858</v>
       </c>
-      <c r="O61">
+      <c r="S61">
         <v>3.80586</v>
       </c>
-      <c r="Q61">
+      <c r="V61">
         <v>17019</v>
       </c>
-      <c r="R61">
+      <c r="W61">
         <v>3.6886100000000002</v>
       </c>
-      <c r="T61">
+      <c r="Z61">
         <v>19179</v>
       </c>
-      <c r="U61">
+      <c r="AA61">
         <v>3.5527299999999999</v>
       </c>
-      <c r="W61">
+      <c r="AD61">
         <v>21340</v>
       </c>
-      <c r="X61">
+      <c r="AE61">
         <v>3.4245700000000001</v>
       </c>
-      <c r="Z61">
+      <c r="AH61">
         <v>23500</v>
       </c>
-      <c r="AA61">
+      <c r="AI61">
         <v>3.2767499999999998</v>
       </c>
-      <c r="AC61">
+      <c r="AL61">
         <v>25622</v>
       </c>
-      <c r="AD61">
+      <c r="AM61">
         <v>3.1242800000000002</v>
       </c>
-      <c r="AF61">
+      <c r="AP61">
         <v>27449</v>
       </c>
-      <c r="AG61">
+      <c r="AQ61">
         <v>3.0905300000000002</v>
       </c>
     </row>
-    <row r="62" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E62">
+    <row r="62" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F62">
         <v>8407</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>4.0907900000000001</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>10568</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>4.0086899999999996</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>12728</v>
       </c>
-      <c r="L62">
+      <c r="O62">
         <v>3.8871500000000001</v>
       </c>
-      <c r="N62">
+      <c r="R62">
         <v>14889</v>
       </c>
-      <c r="O62">
+      <c r="S62">
         <v>3.8058999999999998</v>
       </c>
-      <c r="Q62">
+      <c r="V62">
         <v>17049</v>
       </c>
-      <c r="R62">
+      <c r="W62">
         <v>3.68859</v>
       </c>
-      <c r="T62">
+      <c r="Z62">
         <v>19209</v>
       </c>
-      <c r="U62">
+      <c r="AA62">
         <v>3.55274</v>
       </c>
-      <c r="W62">
+      <c r="AD62">
         <v>21370</v>
       </c>
-      <c r="X62">
+      <c r="AE62">
         <v>3.4245800000000002</v>
       </c>
-      <c r="Z62">
+      <c r="AH62">
         <v>23530</v>
       </c>
-      <c r="AA62">
+      <c r="AI62">
         <v>3.2768600000000001</v>
       </c>
-      <c r="AC62">
+      <c r="AL62">
         <v>25652</v>
       </c>
-      <c r="AD62">
+      <c r="AM62">
         <v>3.1244499999999999</v>
       </c>
-      <c r="AF62">
+      <c r="AP62">
         <v>27479</v>
       </c>
-      <c r="AG62">
+      <c r="AQ62">
         <v>3.0907399999999998</v>
       </c>
     </row>
-    <row r="63" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E63">
+    <row r="63" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F63">
         <v>8437</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>4.09084</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>10598</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>4.0086899999999996</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>12758</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>3.8871899999999999</v>
       </c>
-      <c r="N63">
+      <c r="R63">
         <v>14919</v>
       </c>
-      <c r="O63">
+      <c r="S63">
         <v>3.8058700000000001</v>
       </c>
-      <c r="Q63">
+      <c r="V63">
         <v>17079</v>
       </c>
-      <c r="R63">
+      <c r="W63">
         <v>3.6886299999999999</v>
       </c>
-      <c r="T63">
+      <c r="Z63">
         <v>19239</v>
       </c>
-      <c r="U63">
+      <c r="AA63">
         <v>3.5527500000000001</v>
       </c>
-      <c r="W63">
+      <c r="AD63">
         <v>21400</v>
       </c>
-      <c r="X63">
+      <c r="AE63">
         <v>3.4246400000000001</v>
       </c>
-      <c r="Z63">
+      <c r="AH63">
         <v>23560</v>
       </c>
-      <c r="AA63">
+      <c r="AI63">
         <v>3.2769499999999998</v>
       </c>
-      <c r="AC63">
+      <c r="AL63">
         <v>25682</v>
       </c>
-      <c r="AD63">
+      <c r="AM63">
         <v>3.12459</v>
       </c>
-      <c r="AF63">
+      <c r="AP63">
         <v>27509</v>
       </c>
-      <c r="AG63">
+      <c r="AQ63">
         <v>3.0910099999999998</v>
       </c>
     </row>
-    <row r="64" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E64">
+    <row r="64" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F64">
         <v>8467</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>4.0908300000000004</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>10628</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>4.0087000000000002</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>12788</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <v>3.8871899999999999</v>
       </c>
-      <c r="N64">
+      <c r="R64">
         <v>14949</v>
       </c>
-      <c r="O64">
+      <c r="S64">
         <v>3.8058900000000002</v>
       </c>
-      <c r="Q64">
+      <c r="V64">
         <v>17109</v>
       </c>
-      <c r="R64">
+      <c r="W64">
         <v>3.6886199999999998</v>
       </c>
-      <c r="T64">
+      <c r="Z64">
         <v>19269</v>
       </c>
-      <c r="U64">
+      <c r="AA64">
         <v>3.5527899999999999</v>
       </c>
-      <c r="W64">
+      <c r="AD64">
         <v>21430</v>
       </c>
-      <c r="X64">
+      <c r="AE64">
         <v>3.4247299999999998</v>
       </c>
-      <c r="Z64">
+      <c r="AH64">
         <v>23590</v>
       </c>
-      <c r="AA64">
+      <c r="AI64">
         <v>3.2771499999999998</v>
       </c>
-      <c r="AC64">
+      <c r="AL64">
         <v>25712</v>
       </c>
-      <c r="AD64">
+      <c r="AM64">
         <v>3.1247600000000002</v>
       </c>
-      <c r="AF64">
+      <c r="AP64">
         <v>27539</v>
       </c>
-      <c r="AG64">
+      <c r="AQ64">
         <v>3.0911900000000001</v>
       </c>
     </row>
-    <row r="65" spans="5:33" x14ac:dyDescent="0.35">
-      <c r="E65">
+    <row r="65" spans="6:43" x14ac:dyDescent="0.35">
+      <c r="F65">
         <v>8497</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>4.0908100000000003</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>10658</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>4.0088699999999999</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>12818</v>
       </c>
-      <c r="L65">
+      <c r="O65">
         <v>3.8874300000000002</v>
       </c>
-      <c r="N65">
+      <c r="R65">
         <v>14979</v>
       </c>
-      <c r="O65">
+      <c r="S65">
         <v>3.8059099999999999</v>
       </c>
-      <c r="Q65">
+      <c r="V65">
         <v>17139</v>
       </c>
-      <c r="R65">
+      <c r="W65">
         <v>3.6887300000000001</v>
       </c>
-      <c r="T65">
+      <c r="Z65">
         <v>19299</v>
       </c>
-      <c r="U65">
+      <c r="AA65">
         <v>3.5527299999999999</v>
       </c>
-      <c r="W65">
+      <c r="AD65">
         <v>21460</v>
       </c>
-      <c r="X65">
+      <c r="AE65">
         <v>3.4247399999999999</v>
       </c>
-      <c r="Z65">
+      <c r="AH65">
         <v>23620</v>
       </c>
-      <c r="AA65">
+      <c r="AI65">
         <v>3.2772999999999999</v>
       </c>
-      <c r="AC65">
+      <c r="AL65">
         <v>25742</v>
       </c>
-      <c r="AD65">
+      <c r="AM65">
         <v>3.1249799999999999</v>
       </c>
-      <c r="AF65">
+      <c r="AP65">
         <v>27569</v>
       </c>
-      <c r="AG65">
+      <c r="AQ65">
         <v>3.0914999999999999</v>
       </c>
     </row>
